--- a/excel_datos.xlsx
+++ b/excel_datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apafa_repositorio\apafa_chalpon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorio_apafa\apafa_chalpon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,11 @@
     <sheet name="excel_datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1274">
   <si>
     <t>tdoc_alumno</t>
   </si>
@@ -1699,333 +1698,6 @@
     <t>Abad Chavez</t>
   </si>
   <si>
-    <t>Flores</t>
-  </si>
-  <si>
-    <t>Aguilar</t>
-  </si>
-  <si>
-    <t>Vasquez</t>
-  </si>
-  <si>
-    <t>Maury</t>
-  </si>
-  <si>
-    <t>Zamudio</t>
-  </si>
-  <si>
-    <t>Huaman</t>
-  </si>
-  <si>
-    <t>Cieza</t>
-  </si>
-  <si>
-    <t>Nuñez</t>
-  </si>
-  <si>
-    <t>Poma</t>
-  </si>
-  <si>
-    <t>Urteaga</t>
-  </si>
-  <si>
-    <t>Gamarra</t>
-  </si>
-  <si>
-    <t>Casas</t>
-  </si>
-  <si>
-    <t>Soplin</t>
-  </si>
-  <si>
-    <t>Alva</t>
-  </si>
-  <si>
-    <t>Jimenez</t>
-  </si>
-  <si>
-    <t>Cohen</t>
-  </si>
-  <si>
-    <t>López</t>
-  </si>
-  <si>
-    <t>Robles</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Brenes</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Boix</t>
-  </si>
-  <si>
-    <t>Bosca</t>
-  </si>
-  <si>
-    <t>Chavez</t>
-  </si>
-  <si>
-    <t>Fallas</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Talavera</t>
-  </si>
-  <si>
-    <t>Cantillano</t>
-  </si>
-  <si>
-    <t>García</t>
-  </si>
-  <si>
-    <t>Blaya</t>
-  </si>
-  <si>
-    <t>Gómez</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
-    <t>Nicolás</t>
-  </si>
-  <si>
-    <t>Manzano</t>
-  </si>
-  <si>
-    <t>Calvo</t>
-  </si>
-  <si>
-    <t>Rueda</t>
-  </si>
-  <si>
-    <t>Abad</t>
-  </si>
-  <si>
-    <t>Guerrero</t>
-  </si>
-  <si>
-    <t>Santisteban</t>
-  </si>
-  <si>
-    <t>Cervantes</t>
-  </si>
-  <si>
-    <t>Diaz</t>
-  </si>
-  <si>
-    <t>Gil</t>
-  </si>
-  <si>
-    <t>Marrufo</t>
-  </si>
-  <si>
-    <t>Reyna</t>
-  </si>
-  <si>
-    <t>Coronado</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>Fernandez</t>
-  </si>
-  <si>
-    <t>Heredia</t>
-  </si>
-  <si>
-    <t>Espinoza</t>
-  </si>
-  <si>
-    <t>Leon</t>
-  </si>
-  <si>
-    <t>Barboza</t>
-  </si>
-  <si>
-    <t>Cholan</t>
-  </si>
-  <si>
-    <t>Davila</t>
-  </si>
-  <si>
-    <t>Hurtado</t>
-  </si>
-  <si>
-    <t>Panta</t>
-  </si>
-  <si>
-    <t>Izquierdo</t>
-  </si>
-  <si>
-    <t>Delgado</t>
-  </si>
-  <si>
-    <t>Correa</t>
-  </si>
-  <si>
-    <t>Rabanal</t>
-  </si>
-  <si>
-    <t>Malca</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>Bernal</t>
-  </si>
-  <si>
-    <t>Campos</t>
-  </si>
-  <si>
-    <t>Crespo</t>
-  </si>
-  <si>
-    <t>Parinango</t>
-  </si>
-  <si>
-    <t>Ticlla</t>
-  </si>
-  <si>
-    <t>Calderón</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>Penas</t>
-  </si>
-  <si>
-    <t>Herrera</t>
-  </si>
-  <si>
-    <t>Silva</t>
-  </si>
-  <si>
-    <t>Neira</t>
-  </si>
-  <si>
-    <t>Degola</t>
-  </si>
-  <si>
-    <t>Tello</t>
-  </si>
-  <si>
-    <t>Carrasco</t>
-  </si>
-  <si>
-    <t>Castillo</t>
-  </si>
-  <si>
-    <t>Sepulveda</t>
-  </si>
-  <si>
-    <t>Linares</t>
-  </si>
-  <si>
-    <t>Carhuajulca</t>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>Mori</t>
-  </si>
-  <si>
-    <t>Rojas</t>
-  </si>
-  <si>
-    <t>Peralta</t>
-  </si>
-  <si>
-    <t>Torres</t>
-  </si>
-  <si>
-    <t>Ordoñez</t>
-  </si>
-  <si>
-    <t>Pintado</t>
-  </si>
-  <si>
-    <t>Vidarte</t>
-  </si>
-  <si>
-    <t>Vigil</t>
-  </si>
-  <si>
-    <t>Quispe</t>
-  </si>
-  <si>
-    <t>Cajahuaringa</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Vicente</t>
-  </si>
-  <si>
-    <t>Saavedra</t>
-  </si>
-  <si>
-    <t>Pinedo</t>
-  </si>
-  <si>
-    <t>Cardozo</t>
-  </si>
-  <si>
-    <t>Hoyos</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Tenorio</t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>Ruiz</t>
-  </si>
-  <si>
-    <t>Terrones</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>Bellodas</t>
-  </si>
-  <si>
-    <t>Olano</t>
-  </si>
-  <si>
-    <t>Medina</t>
-  </si>
-  <si>
-    <t>De Freitas</t>
-  </si>
-  <si>
-    <t>Salinas</t>
-  </si>
-  <si>
     <t>Flores Abad</t>
   </si>
   <si>
@@ -3025,9 +2697,6 @@
     <t>950632290</t>
   </si>
   <si>
-    <t>999627121</t>
-  </si>
-  <si>
     <t>958031062</t>
   </si>
   <si>
@@ -3353,6 +3022,825 @@
   </si>
   <si>
     <t>472681</t>
+  </si>
+  <si>
+    <t>Maury Zamora</t>
+  </si>
+  <si>
+    <t>Clariliz Matilde</t>
+  </si>
+  <si>
+    <t>Zamudio Vasquez</t>
+  </si>
+  <si>
+    <t>Leysi</t>
+  </si>
+  <si>
+    <t>Huaman Baca</t>
+  </si>
+  <si>
+    <t>Mirelly Jasmin</t>
+  </si>
+  <si>
+    <t>Nuñez Bustamante</t>
+  </si>
+  <si>
+    <t>Yeni</t>
+  </si>
+  <si>
+    <t>Poma Carrera</t>
+  </si>
+  <si>
+    <t>Lesdy</t>
+  </si>
+  <si>
+    <t>Urteaga Cruz</t>
+  </si>
+  <si>
+    <t>Yannina</t>
+  </si>
+  <si>
+    <t>Gamarra Cubas</t>
+  </si>
+  <si>
+    <t>Sarita Janet</t>
+  </si>
+  <si>
+    <t>Casas Sanchez</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Soplin Cornejo</t>
+  </si>
+  <si>
+    <t>Sindy</t>
+  </si>
+  <si>
+    <t>Alva Daza</t>
+  </si>
+  <si>
+    <t>Katia</t>
+  </si>
+  <si>
+    <t>Jimenez De La Cruz</t>
+  </si>
+  <si>
+    <t>Ines</t>
+  </si>
+  <si>
+    <t>Cohen Delgado</t>
+  </si>
+  <si>
+    <t>Yoly</t>
+  </si>
+  <si>
+    <t>López Dueñas</t>
+  </si>
+  <si>
+    <t>Marizol</t>
+  </si>
+  <si>
+    <t>Robles Fernandez</t>
+  </si>
+  <si>
+    <t>Gladis</t>
+  </si>
+  <si>
+    <t>López Diaz</t>
+  </si>
+  <si>
+    <t>Magdalena</t>
+  </si>
+  <si>
+    <t>Martinez Vilchez</t>
+  </si>
+  <si>
+    <t>Berta</t>
+  </si>
+  <si>
+    <t>Brenes Cruzado</t>
+  </si>
+  <si>
+    <t>Doraly</t>
+  </si>
+  <si>
+    <t>Lopez Tocto</t>
+  </si>
+  <si>
+    <t>Haydee</t>
+  </si>
+  <si>
+    <t>Boix Uriol</t>
+  </si>
+  <si>
+    <t>Edith</t>
+  </si>
+  <si>
+    <t>Bosca Baldera</t>
+  </si>
+  <si>
+    <t>Cory</t>
+  </si>
+  <si>
+    <t>Fallas Alva</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>De Freitas Catpo</t>
+  </si>
+  <si>
+    <t>Militza</t>
+  </si>
+  <si>
+    <t>Talavera Diaz</t>
+  </si>
+  <si>
+    <t>Zulema</t>
+  </si>
+  <si>
+    <t>Cantillano Ocampo</t>
+  </si>
+  <si>
+    <t>Luzmelita</t>
+  </si>
+  <si>
+    <t>Blaya Arce</t>
+  </si>
+  <si>
+    <t>Dorali</t>
+  </si>
+  <si>
+    <t>García Huaman</t>
+  </si>
+  <si>
+    <t>Clarita</t>
+  </si>
+  <si>
+    <t>Luz Clarita</t>
+  </si>
+  <si>
+    <t>Minchan Gutierrez</t>
+  </si>
+  <si>
+    <t>Martínez Paucar</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Nicolás Mesia</t>
+  </si>
+  <si>
+    <t>Blanca</t>
+  </si>
+  <si>
+    <t>Manzano Espinoza</t>
+  </si>
+  <si>
+    <t>Xiomara</t>
+  </si>
+  <si>
+    <t>Calvo Machado</t>
+  </si>
+  <si>
+    <t>Medally</t>
+  </si>
+  <si>
+    <t>García Lazaro</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Rueda Aranda</t>
+  </si>
+  <si>
+    <t>Maria Cecilia</t>
+  </si>
+  <si>
+    <t>Chavez Vasquez</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Guerrero Correa</t>
+  </si>
+  <si>
+    <t>Flor Isabel</t>
+  </si>
+  <si>
+    <t>Santisteban Ita</t>
+  </si>
+  <si>
+    <t>Milagros Magaly</t>
+  </si>
+  <si>
+    <t>Cervantes Malaspina</t>
+  </si>
+  <si>
+    <t>Lizbeth</t>
+  </si>
+  <si>
+    <t>Diaz Medina</t>
+  </si>
+  <si>
+    <t>Giselle</t>
+  </si>
+  <si>
+    <t>Gil Rocca</t>
+  </si>
+  <si>
+    <t>Fernanda Luisa</t>
+  </si>
+  <si>
+    <t>Marrufo Julcamoro</t>
+  </si>
+  <si>
+    <t>Teresa Isabel</t>
+  </si>
+  <si>
+    <t>Marrufo Minchon</t>
+  </si>
+  <si>
+    <t>Gianera</t>
+  </si>
+  <si>
+    <t>Reyna Perez</t>
+  </si>
+  <si>
+    <t>Mayra Patricia</t>
+  </si>
+  <si>
+    <t>Coronado Palma</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Garcia Chavez</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Pérez Roncal</t>
+  </si>
+  <si>
+    <t>Janny Patricia</t>
+  </si>
+  <si>
+    <t>Fernandez Flores</t>
+  </si>
+  <si>
+    <t>Adhely</t>
+  </si>
+  <si>
+    <t>Heredia Sanchez</t>
+  </si>
+  <si>
+    <t>Erika Luzmila</t>
+  </si>
+  <si>
+    <t>Espinoza Saavedra</t>
+  </si>
+  <si>
+    <t>Jackeline</t>
+  </si>
+  <si>
+    <t>Cervantes Ramos</t>
+  </si>
+  <si>
+    <t>Annyle Paola</t>
+  </si>
+  <si>
+    <t>Cervantes Ticeran</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Leon Silva</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Abad Torres</t>
+  </si>
+  <si>
+    <t>Teresa De Jesus</t>
+  </si>
+  <si>
+    <t>Cholan Varas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria </t>
+  </si>
+  <si>
+    <t>Davila Rojas</t>
+  </si>
+  <si>
+    <t>Hurtado Chavez</t>
+  </si>
+  <si>
+    <t>Ruth Rosa</t>
+  </si>
+  <si>
+    <t>Panta Caballero</t>
+  </si>
+  <si>
+    <t>Vanessa Dayam</t>
+  </si>
+  <si>
+    <t>Izquierdo Cancha</t>
+  </si>
+  <si>
+    <t>Mariluz Edilia</t>
+  </si>
+  <si>
+    <t>Delgado Zorrilla</t>
+  </si>
+  <si>
+    <t>Eda Maritza</t>
+  </si>
+  <si>
+    <t>Jimenez Alvarado</t>
+  </si>
+  <si>
+    <t>Estefany Norma</t>
+  </si>
+  <si>
+    <t>Delgado Chiquillo</t>
+  </si>
+  <si>
+    <t>Mily Pilar</t>
+  </si>
+  <si>
+    <t>Correa Castro</t>
+  </si>
+  <si>
+    <t>Mirelle Stephany</t>
+  </si>
+  <si>
+    <t>Diaz Espinoza</t>
+  </si>
+  <si>
+    <t>Greyci</t>
+  </si>
+  <si>
+    <t>Rabanal Figueroa</t>
+  </si>
+  <si>
+    <t>Reyna Gomez</t>
+  </si>
+  <si>
+    <t>Mariela</t>
+  </si>
+  <si>
+    <t>Malca Barreto</t>
+  </si>
+  <si>
+    <t>Blanca Cesilia</t>
+  </si>
+  <si>
+    <t>Cruz Trejo</t>
+  </si>
+  <si>
+    <t>Lourdes</t>
+  </si>
+  <si>
+    <t>Perez Macedo</t>
+  </si>
+  <si>
+    <t>Gloria Edith</t>
+  </si>
+  <si>
+    <t>Bernal Luna</t>
+  </si>
+  <si>
+    <t>Karen Selene</t>
+  </si>
+  <si>
+    <t>Campos Meza</t>
+  </si>
+  <si>
+    <t>Melva</t>
+  </si>
+  <si>
+    <t>Crespo Ureta</t>
+  </si>
+  <si>
+    <t>Mayumi</t>
+  </si>
+  <si>
+    <t>Parinango Molina</t>
+  </si>
+  <si>
+    <t>Dominga</t>
+  </si>
+  <si>
+    <t>Ticlla Palomino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen </t>
+  </si>
+  <si>
+    <t>Calderón Mejia</t>
+  </si>
+  <si>
+    <t>Gaby Pilar</t>
+  </si>
+  <si>
+    <t>Perez Santos</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
+    <t>Morales Salvador</t>
+  </si>
+  <si>
+    <t>Norka</t>
+  </si>
+  <si>
+    <t>Penas Santos</t>
+  </si>
+  <si>
+    <t>Veronica</t>
+  </si>
+  <si>
+    <t>Cieza Alvarez</t>
+  </si>
+  <si>
+    <t>Mireya</t>
+  </si>
+  <si>
+    <t>Silva Lazaro</t>
+  </si>
+  <si>
+    <t>Karina Lourdes</t>
+  </si>
+  <si>
+    <t>Neira Santa Cruz</t>
+  </si>
+  <si>
+    <t>Antonieta</t>
+  </si>
+  <si>
+    <t>Degola Rivas</t>
+  </si>
+  <si>
+    <t>Fernandez Pantoja</t>
+  </si>
+  <si>
+    <t>Grimaldina</t>
+  </si>
+  <si>
+    <t>Tello Guzman</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Carrasco Medrano</t>
+  </si>
+  <si>
+    <t>Arelis Marleny</t>
+  </si>
+  <si>
+    <t>Castillo Soto</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Salinas Salcedo</t>
+  </si>
+  <si>
+    <t>Jezzy</t>
+  </si>
+  <si>
+    <t>Sepulveda Torres</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Carhuajulca Diaz</t>
+  </si>
+  <si>
+    <t>Miriam</t>
+  </si>
+  <si>
+    <t>Rodriguez Guizado</t>
+  </si>
+  <si>
+    <t>Luz Amparo</t>
+  </si>
+  <si>
+    <t>Cruz Cardenas</t>
+  </si>
+  <si>
+    <t>Sumara Luz</t>
+  </si>
+  <si>
+    <t>Delgado Quilla</t>
+  </si>
+  <si>
+    <t>Camilia Lucia</t>
+  </si>
+  <si>
+    <t>Mori Arana</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Rojas Quispe</t>
+  </si>
+  <si>
+    <t>Gabriela Pamela</t>
+  </si>
+  <si>
+    <t>Peralta Chura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruby </t>
+  </si>
+  <si>
+    <t>Torres Condori</t>
+  </si>
+  <si>
+    <t>Marat</t>
+  </si>
+  <si>
+    <t>Davila Castelo</t>
+  </si>
+  <si>
+    <t>Miriam Daniela</t>
+  </si>
+  <si>
+    <t>Barboza Cortez</t>
+  </si>
+  <si>
+    <t>Mayra Isabel</t>
+  </si>
+  <si>
+    <t>Ordoñez Castelo</t>
+  </si>
+  <si>
+    <t>Zenaida</t>
+  </si>
+  <si>
+    <t>Delgado Medina</t>
+  </si>
+  <si>
+    <t>Elgia</t>
+  </si>
+  <si>
+    <t>Pintado Vilca</t>
+  </si>
+  <si>
+    <t>Katerine</t>
+  </si>
+  <si>
+    <t>Vasquez Cosi</t>
+  </si>
+  <si>
+    <t>Yulissa</t>
+  </si>
+  <si>
+    <t>Vidarte Cabana</t>
+  </si>
+  <si>
+    <t>Rocio</t>
+  </si>
+  <si>
+    <t>Aguilar Montes</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Vigil Ojeda</t>
+  </si>
+  <si>
+    <t>Pierina</t>
+  </si>
+  <si>
+    <t>Torres Collazos</t>
+  </si>
+  <si>
+    <t>Antonina</t>
+  </si>
+  <si>
+    <t>Quispe Lima</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Cajahuaringa Santillana</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Cruz Cañazca</t>
+  </si>
+  <si>
+    <t>Solange</t>
+  </si>
+  <si>
+    <t>Delgado Del Carpio</t>
+  </si>
+  <si>
+    <t>Idalia</t>
+  </si>
+  <si>
+    <t>Abad Solis</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Leo Mojo</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Aguilar Pauca</t>
+  </si>
+  <si>
+    <t>Karla Luz</t>
+  </si>
+  <si>
+    <t>Vicente Teves</t>
+  </si>
+  <si>
+    <t>Rosa Leydi</t>
+  </si>
+  <si>
+    <t>Pinedo Bautista</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Cardozo Alarcon</t>
+  </si>
+  <si>
+    <t>Yovani</t>
+  </si>
+  <si>
+    <t>Hoyos Arevalo</t>
+  </si>
+  <si>
+    <t>Rivera Contreras</t>
+  </si>
+  <si>
+    <t>Martinez Garcia</t>
+  </si>
+  <si>
+    <t>Thalia</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>Yocani Rene</t>
+  </si>
+  <si>
+    <t>Marin Castro</t>
+  </si>
+  <si>
+    <t>Flores Fernandez</t>
+  </si>
+  <si>
+    <t>Saavedra Jeri</t>
+  </si>
+  <si>
+    <t>Deysi</t>
+  </si>
+  <si>
+    <t>Rosmery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayra </t>
+  </si>
+  <si>
+    <t>Nuñez Huaman</t>
+  </si>
+  <si>
+    <t>Gina Marissa</t>
+  </si>
+  <si>
+    <t>Tenorio Hinostroza</t>
+  </si>
+  <si>
+    <t>Rojas Felices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramos Mauricio </t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Linares Montes</t>
+  </si>
+  <si>
+    <t>Antonia</t>
+  </si>
+  <si>
+    <t>Ruiz Carbajal</t>
+  </si>
+  <si>
+    <t>Zuleika</t>
+  </si>
+  <si>
+    <t>Guerrero Morales</t>
+  </si>
+  <si>
+    <t>Kendra</t>
+  </si>
+  <si>
+    <t>Guerrero Bautista</t>
+  </si>
+  <si>
+    <t>Manuela</t>
+  </si>
+  <si>
+    <t>Mayra Rimachi</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>Davila Sanchez</t>
+  </si>
+  <si>
+    <t>Loida</t>
+  </si>
+  <si>
+    <t>Fernandez Vargas</t>
+  </si>
+  <si>
+    <t>Catherin</t>
+  </si>
+  <si>
+    <t>Terrones Gomez</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>Castro Gamboa</t>
+  </si>
+  <si>
+    <t>Silvia Sonia</t>
+  </si>
+  <si>
+    <t>Bellodas De La Cruz</t>
+  </si>
+  <si>
+    <t>Herrera Leon</t>
+  </si>
+  <si>
+    <t>Maribel Rocio</t>
+  </si>
+  <si>
+    <t>Diaz Montoya</t>
+  </si>
+  <si>
+    <t>Nancy Elizabth</t>
+  </si>
+  <si>
+    <t>Perez Jimenez</t>
+  </si>
+  <si>
+    <t>Zoraida</t>
+  </si>
+  <si>
+    <t>Olano Medina</t>
+  </si>
+  <si>
+    <t>Leyda Madeli</t>
+  </si>
+  <si>
+    <t>Medina Galan</t>
+  </si>
+  <si>
+    <t>Lisset Vanesa</t>
+  </si>
+  <si>
+    <t>Laura Raquel</t>
   </si>
 </sst>
 </file>
@@ -3908,6 +4396,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3917,7 +4406,6 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="13" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3963,28 +4451,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4262,8 +4729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4282,7 +4749,7 @@
     <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="199.85546875" bestFit="1" customWidth="1"/>
@@ -4301,11 +4768,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4390,22 +4857,22 @@
         <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>668</v>
+        <v>559</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>811</v>
+        <v>702</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>941</v>
+        <v>832</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>938</v>
+        <v>829</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>939</v>
+        <v>830</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>24</v>
@@ -4414,8 +4881,8 @@
         <v>24</v>
       </c>
       <c r="V2" t="str">
-        <f>CONCATENATE("CALL pa_insertar_alumno('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"-",F2,"-",G2,"','",H2,"',",IF(I2="NULL","NULL",CONCATENATE("'",I2,"'")),",'",J2,"','",K2,"',",IF(L2="NULL","NULL",CONCATENATE("'",L2,"'")),",",IF(M2="NULL","NULL",CONCATENATE("'",M2,"'")),",'",N2,"','",O2,"',",IF(P2="NULL","NULL",CONCATENATE("'",P2,"'")),",",IF(Q2="NULL","NULL",CONCATENATE("'",Q2,"'")),",'",R2,"','",S2,"',",IF(T2="NULL","NULL",CONCATENATE("'",T2,"'")),",",IF(U2="NULL","NULL",CONCATENATE("'",U2,"'")),")")</f>
-        <v>CALL pa_insertar_alumno('OTR','751654654M65484','Flores Aguilar','Diego','2006-6-6','M',NULL,'928282905','La Posada SN',NULL,NULL,'Flores Abad','Adler Mauro','929151181',NULL,'Aguilar Martinez','Rosa Luisa',NULL,NULL)</v>
+        <f>CONCATENATE("CALL pa_insertar_alumno('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"-",F2,"-",G2,"','",H2,"',",IF(I2="NULL","NULL",CONCATENATE("'",I2,"'")),",'",J2,"','",K2,"',",IF(L2="NULL","NULL",CONCATENATE("'",L2,"'")),",",IF(M2="NULL","NULL",CONCATENATE("'",M2,"'")),",'",N2,"','",O2,"',",IF(P2="NULL","NULL",CONCATENATE("'",P2,"'")),",",IF(Q2="NULL","NULL",CONCATENATE("'",Q2,"'")),",'",R2,"','",S2,"',",IF(T2="NULL","NULL",CONCATENATE("'",T2,"'")),",",IF(U2="NULL","NULL",CONCATENATE("'",U2,"'")),");")</f>
+        <v>CALL pa_insertar_alumno('OTR','751654654M65484','Flores Aguilar','Diego','2006-6-6','M',NULL,'928282905','La Posada SN',NULL,NULL,'Flores Abad','Adler Mauro','929151181',NULL,'Aguilar Martinez','Rosa Luisa',NULL,NULL);</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -4444,7 +4911,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1047</v>
+        <v>937</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>402</v>
@@ -4459,19 +4926,19 @@
         <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>669</v>
+        <v>560</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>812</v>
+        <v>703</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>942</v>
+        <v>833</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>940</v>
+        <v>831</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>30</v>
@@ -4483,8 +4950,8 @@
         <v>24</v>
       </c>
       <c r="V3" t="str">
-        <f>CONCATENATE("CALL pa_insertar_alumno('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"-",F3,"-",G3,"','",H3,"',",IF(I3="NULL","NULL",CONCATENATE("'",I3,"'")),",'",J3,"','",K3,"',",IF(L3="NULL","NULL",CONCATENATE("'",L3,"'")),",",IF(M3="NULL","NULL",CONCATENATE("'",M3,"'")),",'",N3,"','",O3,"',",IF(P3="NULL","NULL",CONCATENATE("'",P3,"'")),",",IF(Q3="NULL","NULL",CONCATENATE("'",Q3,"'")),",'",R3,"','",S3,"',",IF(T3="NULL","NULL",CONCATENATE("'",T3,"'")),",",IF(U3="NULL","NULL",CONCATENATE("'",U3,"'")),")")</f>
-        <v>CALL pa_insertar_alumno('DNI','80717855','Rubio Vasquez','Jose Alexander','2003-8-4','M','480429','987445673','calle jose quinones # 54',NULL,NULL,'Rubio Abad','Samuel','983228426',NULL,'Vasquez Delgado','Luz',NULL,NULL)</v>
+        <f t="shared" ref="V3:V66" si="0">CONCATENATE("CALL pa_insertar_alumno('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"-",F3,"-",G3,"','",H3,"',",IF(I3="NULL","NULL",CONCATENATE("'",I3,"'")),",'",J3,"','",K3,"',",IF(L3="NULL","NULL",CONCATENATE("'",L3,"'")),",",IF(M3="NULL","NULL",CONCATENATE("'",M3,"'")),",'",N3,"','",O3,"',",IF(P3="NULL","NULL",CONCATENATE("'",P3,"'")),",",IF(Q3="NULL","NULL",CONCATENATE("'",Q3,"'")),",'",R3,"','",S3,"',",IF(T3="NULL","NULL",CONCATENATE("'",T3,"'")),",",IF(U3="NULL","NULL",CONCATENATE("'",U3,"'")),");")</f>
+        <v>CALL pa_insertar_alumno('DNI','80717855','Rubio Vasquez','Jose Alexander','2003-8-4','M','480429','987445673','calle jose quinones # 54',NULL,NULL,'Rubio Abad','Samuel','983228426',NULL,'Vasquez Delgado','Luz',NULL,NULL);</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -4513,7 +4980,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1048</v>
+        <v>938</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>403</v>
@@ -4526,26 +4993,28 @@
         <v>24</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>670</v>
+        <v>561</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>813</v>
+        <v>704</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>943</v>
+        <v>834</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="S4" s="2"/>
+        <v>1001</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="T4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" t="str">
-        <f t="shared" ref="V4:V67" si="0">CONCATENATE("CALL pa_insertar_alumno('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"-",F4,"-",G4,"','",H4,"',",IF(I4="NULL","NULL",CONCATENATE("'",I4,"'")),",'",J4,"','",K4,"',",IF(L4="NULL","NULL",CONCATENATE("'",L4,"'")),",",IF(M4="NULL","NULL",CONCATENATE("'",M4,"'")),",'",N4,"','",O4,"',",IF(P4="NULL","NULL",CONCATENATE("'",P4,"'")),",",IF(Q4="NULL","NULL",CONCATENATE("'",Q4,"'")),",'",R4,"','",S4,"',",IF(T4="NULL","NULL",CONCATENATE("'",T4,"'")),",",IF(U4="NULL","NULL",CONCATENATE("'",U4,"'")),")")</f>
-        <v>CALL pa_insertar_alumno('DNI','70832512','Arroyo Maury','Paola Cinthia','2005-4-31','F','479474','901929216','',NULL,NULL,'Arroyo Abanto','Edzon ','965426036','','Maury','',NULL,'')</v>
+        <f t="shared" si="0"/>
+        <v>CALL pa_insertar_alumno('DNI','70832512','Arroyo Maury','Paola Cinthia','2005-4-31','F','479474','901929216','',NULL,NULL,'Arroyo Abanto','Edzon ','965426036','','Maury Zamora','Clariliz Matilde',NULL,'');</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -4587,26 +5056,28 @@
         <v>24</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>671</v>
+        <v>562</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>814</v>
+        <v>705</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="S5" s="2"/>
+        <v>1003</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="T5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','19648251','Carpio Zamudio','Angela Maria','2003-6-20','F',NULL,'971006543','',NULL,NULL,'Carpio Abila','Melchor Rogelio',NULL,'','Zamudio','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','19648251','Carpio Zamudio','Angela Maria','2003-6-20','F',NULL,'971006543','',NULL,NULL,'Carpio Abila','Melchor Rogelio',NULL,'','Zamudio Vasquez','Leysi',NULL,'');</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -4648,26 +5119,28 @@
         <v>24</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>672</v>
+        <v>563</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>815</v>
+        <v>706</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="S6" s="2"/>
+        <v>1005</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="T6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','20565088','Caycho Huaman','Jose Alberto','2007-2-22','M',NULL,'910692871','',NULL,NULL,'Caycho Accilio','Henry',NULL,'','Huaman','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','20565088','Caycho Huaman','Jose Alberto','2007-2-22','M',NULL,'910692871','',NULL,NULL,'Caycho Accilio','Henry',NULL,'','Huaman Baca','Mirelly Jasmin',NULL,'');</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -4709,26 +5182,28 @@
         <v>24</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>673</v>
+        <v>564</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>816</v>
+        <v>707</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="S7" s="2"/>
+        <v>1007</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>1008</v>
+      </c>
       <c r="T7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','24678923','Cieza Nuñez','Luis Carlos','2007-2-28','M',NULL,'977343983','',NULL,NULL,'Cieza Acharte','Jhonatan',NULL,'','Nuñez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','24678923','Cieza Nuñez','Luis Carlos','2007-2-28','M',NULL,'977343983','',NULL,NULL,'Cieza Acharte','Jhonatan',NULL,'','Nuñez Bustamante','Yeni',NULL,'');</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -4770,26 +5245,28 @@
         <v>24</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>674</v>
+        <v>565</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="S8" s="2"/>
+        <v>1009</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>1010</v>
+      </c>
       <c r="T8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','70937066','Dumet Poma','Lisset Marilyn','2003-2-6','F',NULL,'938497198','',NULL,NULL,'Dumet Acosta','Fernando',NULL,'','Poma','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','70937066','Dumet Poma','Lisset Marilyn','2003-2-6','F',NULL,'938497198','',NULL,NULL,'Dumet Acosta','Fernando',NULL,'','Poma Carrera','Lesdy',NULL,'');</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -4831,26 +5308,28 @@
         <v>24</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>675</v>
+        <v>566</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>818</v>
+        <v>709</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="S9" s="2"/>
+        <v>1011</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>1012</v>
+      </c>
       <c r="T9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','63138772','Fujishima Urteaga','Begona Saori','2007-8-31','F',NULL,'911544034','',NULL,NULL,'Fujishima Abendaño','Nicolas',NULL,'','Urteaga','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','63138772','Fujishima Urteaga','Begona Saori','2007-8-31','F',NULL,'911544034','',NULL,NULL,'Fujishima Abendaño','Nicolas',NULL,'','Urteaga Cruz','Yannina',NULL,'');</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -4892,26 +5371,28 @@
         <v>24</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>676</v>
+        <v>567</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>819</v>
+        <v>710</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="S10" s="2"/>
+        <v>1013</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>1014</v>
+      </c>
       <c r="T10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','53002208','Longa Gamarra','Yurlik Roger','2005-5-30','M',NULL,'934442634','',NULL,NULL,'Longa Zuñiga','Miguel Angel',NULL,'','Gamarra','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','53002208','Longa Gamarra','Yurlik Roger','2005-5-30','M',NULL,'934442634','',NULL,NULL,'Longa Zuñiga','Miguel Angel',NULL,'','Gamarra Cubas','Sarita Janet',NULL,'');</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -4953,26 +5434,28 @@
         <v>24</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>677</v>
+        <v>568</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>820</v>
+        <v>711</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="S11" s="2"/>
+        <v>1015</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>1016</v>
+      </c>
       <c r="T11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','90325173','Miranda Casas','Elvira Adriana','2006-9-4','F',NULL,'914822125','',NULL,NULL,'Miranda Aguirre','Dan Nefeg',NULL,'','Casas','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','90325173','Miranda Casas','Elvira Adriana','2006-9-4','F',NULL,'914822125','',NULL,NULL,'Miranda Aguirre','Dan Nefeg',NULL,'','Casas Sanchez','Aurora',NULL,'');</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -5014,26 +5497,28 @@
         <v>24</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>678</v>
+        <v>569</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>821</v>
+        <v>712</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="S12" s="2"/>
+        <v>1017</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>1018</v>
+      </c>
       <c r="T12" s="2" t="s">
-        <v>994</v>
+        <v>885</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','61939607','Ramirez Soplin','Magally Loidit','2005-4-19','F',NULL,'923978763','',NULL,NULL,'Ramirez Aique','Enrique',NULL,'','Soplin','','963878818','')</v>
+        <v>CALL pa_insertar_alumno('DNI','61939607','Ramirez Soplin','Magally Loidit','2005-4-19','F',NULL,'923978763','',NULL,NULL,'Ramirez Aique','Enrique',NULL,'','Soplin Cornejo','Sindy','963878818','');</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -5075,26 +5560,28 @@
         <v>24</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>679</v>
+        <v>570</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>822</v>
+        <v>713</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="S13" s="2"/>
+        <v>1019</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>1020</v>
+      </c>
       <c r="T13" s="2" t="s">
-        <v>995</v>
+        <v>886</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','10904092','Tapia Alva','Juana Rafaela','2003-4-16','F',NULL,'900206988','',NULL,NULL,'Tapia Agüero','Neyl Paul',NULL,'','Alva','','908595796','')</v>
+        <v>CALL pa_insertar_alumno('DNI','10904092','Tapia Alva','Juana Rafaela','2003-4-16','F',NULL,'900206988','',NULL,NULL,'Tapia Agüero','Neyl Paul',NULL,'','Alva Daza','Katia','908595796','');</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -5136,26 +5623,28 @@
         <v>24</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>680</v>
+        <v>571</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>823</v>
+        <v>714</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="S14" s="2"/>
+        <v>1021</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>1022</v>
+      </c>
       <c r="T14" s="2" t="s">
-        <v>996</v>
+        <v>887</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','82868877','Tovar Jimenez','Victor Guadalupe','2003-11-30','M',NULL,'939790953','',NULL,NULL,'Tovar Alanya','Estiven Rafael',NULL,'','Jimenez','','997980941','')</v>
+        <v>CALL pa_insertar_alumno('DNI','82868877','Tovar Jimenez','Victor Guadalupe','2003-11-30','M',NULL,'939790953','',NULL,NULL,'Tovar Alanya','Estiven Rafael',NULL,'','Jimenez De La Cruz','Ines','997980941','');</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -5197,26 +5686,28 @@
         <v>24</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>681</v>
+        <v>572</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>824</v>
+        <v>715</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="S15" s="2"/>
+        <v>1023</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>1024</v>
+      </c>
       <c r="T15" s="2" t="s">
-        <v>997</v>
+        <v>888</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','58231260','Vergara Cohen','David','2007-2-23','M',NULL,'948215267','',NULL,NULL,'Vergara Alarcon','Luis',NULL,'','Cohen','','920875746','')</v>
+        <v>CALL pa_insertar_alumno('DNI','58231260','Vergara Cohen','David','2007-2-23','M',NULL,'948215267','',NULL,NULL,'Vergara Alarcon','Luis',NULL,'','Cohen Delgado','Yoly','920875746','');</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -5258,26 +5749,28 @@
         <v>24</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>683</v>
+        <v>574</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>825</v>
+        <v>716</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="S16" s="2"/>
+        <v>1025</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>1026</v>
+      </c>
       <c r="T16" s="2" t="s">
-        <v>998</v>
+        <v>889</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','15653385','Aguado López','Mayra','2006-6-16','M',NULL,'973119361','',NULL,NULL,'Aguado Baltazar','Wilfredo',NULL,'','López','','911672102','')</v>
+        <v>CALL pa_insertar_alumno('DNI','15653385','Aguado López','Mayra','2006-6-16','M',NULL,'973119361','',NULL,NULL,'Aguado Baltazar','Wilfredo',NULL,'','López Dueñas','Marizol','911672102','');</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -5319,26 +5812,28 @@
         <v>24</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>684</v>
+        <v>575</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>826</v>
+        <v>717</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="S17" s="2"/>
+        <v>1027</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>1028</v>
+      </c>
       <c r="T17" s="2" t="s">
-        <v>999</v>
+        <v>890</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','51519494','Alberola Robles','Rafael','2005-11-8','F',NULL,'900021817','',NULL,NULL,'Alberola Balderon','Jorge Silverio',NULL,'','Robles','','964720201','')</v>
+        <v>CALL pa_insertar_alumno('DNI','51519494','Alberola Robles','Rafael','2005-11-8','F',NULL,'900021817','',NULL,NULL,'Alberola Balderon','Jorge Silverio',NULL,'','Robles Fernandez','Gladis','964720201','');</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -5367,7 +5862,7 @@
         <v>33</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1049</v>
+        <v>939</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>417</v>
@@ -5380,26 +5875,28 @@
         <v>24</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>685</v>
+        <v>576</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>827</v>
+        <v>718</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="S18" s="2"/>
+        <v>1029</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>1030</v>
+      </c>
       <c r="T18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','79190077','Alonso López','Francisca','2005-2-3','F','488318','917136863','',NULL,NULL,'Alonso Barros','Kevin',NULL,'','López','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','79190077','Alonso López','Francisca','2005-2-3','F','488318','917136863','',NULL,NULL,'Alonso Barros','Kevin',NULL,'','López Diaz','Magdalena',NULL,'');</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -5428,7 +5925,7 @@
         <v>23</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>1050</v>
+        <v>940</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>418</v>
@@ -5441,26 +5938,28 @@
         <v>24</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>686</v>
+        <v>577</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>828</v>
+        <v>719</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="S19" s="2"/>
+        <v>1031</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>1032</v>
+      </c>
       <c r="T19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','74529930','Álvarado Martinez','Juan Carlos','2006-1-17','M','485625','999018736','',NULL,NULL,'Álvarado Barboza','Michael',NULL,'','Martinez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','74529930','Álvarado Martinez','Juan Carlos','2006-1-17','M','485625','999018736','',NULL,NULL,'Álvarado Barboza','Michael',NULL,'','Martinez Vilchez','Berta',NULL,'');</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -5489,7 +5988,7 @@
         <v>23</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1051</v>
+        <v>941</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>419</v>
@@ -5502,26 +6001,28 @@
         <v>24</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>687</v>
+        <v>578</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>829</v>
+        <v>720</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>944</v>
+        <v>835</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="S20" s="2"/>
+        <v>1033</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>1034</v>
+      </c>
       <c r="T20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','52714297','Arias Brenes','Guido Giancarlo','2003-6-24','M','455765','947555043','',NULL,NULL,'Arias Bardales','Christian Daeive','947236763','','Brenes','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','52714297','Arias Brenes','Guido Giancarlo','2003-6-24','M','455765','947555043','',NULL,NULL,'Arias Bardales','Christian Daeive','947236763','','Brenes Cruzado','Doraly',NULL,'');</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -5550,7 +6051,7 @@
         <v>33</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1052</v>
+        <v>942</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>420</v>
@@ -5563,26 +6064,28 @@
         <v>24</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>688</v>
+        <v>579</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>830</v>
+        <v>721</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>945</v>
+        <v>836</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="S21" s="2"/>
+        <v>1035</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>1036</v>
+      </c>
       <c r="T21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','25778260','Bastida Lopez','Dolores Margarita','2007-3-4','F','400375','955070840','',NULL,NULL,'Bastida Bartolo','Jonas Darwin','927903915','','Lopez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','25778260','Bastida Lopez','Dolores Margarita','2007-3-4','F','400375','955070840','',NULL,NULL,'Bastida Bartolo','Jonas Darwin','927903915','','Lopez Tocto','Haydee',NULL,'');</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -5611,7 +6114,7 @@
         <v>23</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>1053</v>
+        <v>943</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>421</v>
@@ -5624,26 +6127,28 @@
         <v>24</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>689</v>
+        <v>580</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>831</v>
+        <v>722</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>946</v>
+        <v>837</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="S22" s="2"/>
+        <v>1037</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>1038</v>
+      </c>
       <c r="T22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','84601834','Blasco Boix','Jos? Manuel','2006-9-30','M','469563','955464959','',NULL,NULL,'Blasco Balvin','Neyer Ivan','930392751','','Boix','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','84601834','Blasco Boix','Jos? Manuel','2006-9-30','M','469563','955464959','',NULL,NULL,'Blasco Balvin','Neyer Ivan','930392751','','Boix Uriol','Edith',NULL,'');</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -5672,7 +6177,7 @@
         <v>23</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>1054</v>
+        <v>944</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>422</v>
@@ -5685,26 +6190,28 @@
         <v>24</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>690</v>
+        <v>581</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>832</v>
+        <v>723</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>947</v>
+        <v>838</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="S23" s="2"/>
+        <v>1039</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>1040</v>
+      </c>
       <c r="T23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','86208143','Casas Bosca','Juan F?lix','2003-6-12','M','477441','986304167','',NULL,NULL,'Casas Barzola','Michael Willian','987738404','','Bosca','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','86208143','Casas Bosca','Juan F?lix','2003-6-12','M','477441','986304167','',NULL,NULL,'Casas Barzola','Michael Willian','987738404','','Bosca Baldera','Cory',NULL,'');</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -5733,7 +6240,7 @@
         <v>33</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1055</v>
+        <v>945</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>423</v>
@@ -5746,26 +6253,28 @@
         <v>24</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>691</v>
+        <v>582</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>833</v>
+        <v>724</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>948</v>
+        <v>839</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="S24" s="2"/>
+        <v>1041</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>1042</v>
+      </c>
       <c r="T24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','29043534','Chavez Fallas','Liliana','2005-5-2','F','414840','945826249','',NULL,NULL,'Chavez Bonilla','Mequias','993488621','','Fallas','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','29043534','Chavez Fallas','Liliana','2005-5-2','F','414840','945826249','',NULL,NULL,'Chavez Bonilla','Mequias','993488621','','Fallas Alva','Mercedes',NULL,'');</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -5794,7 +6303,7 @@
         <v>23</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>1056</v>
+        <v>946</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>424</v>
@@ -5807,26 +6316,28 @@
         <v>24</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>692</v>
+        <v>583</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>834</v>
+        <v>725</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>949</v>
+        <v>840</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="S25" s="2"/>
+        <v>1043</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>1044</v>
+      </c>
       <c r="T25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U25" s="2"/>
       <c r="V25" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','38657266','Cruz De Freitas','Marcos Paulo','2006-8-10','M','442712','998517880','',NULL,NULL,'Cruz Bocanegra','Junior Jhasiro','922930427','','De Freitas','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','38657266','Cruz De Freitas','Marcos Paulo','2006-8-10','M','442712','998517880','',NULL,NULL,'Cruz Bocanegra','Junior Jhasiro','922930427','','De Freitas Catpo','Militza',NULL,'');</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -5855,7 +6366,7 @@
         <v>33</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>1057</v>
+        <v>947</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>425</v>
@@ -5868,26 +6379,28 @@
         <v>24</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>693</v>
+        <v>584</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>835</v>
+        <v>726</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>950</v>
+        <v>841</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="S26" s="2"/>
+        <v>1045</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="T26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U26" s="2"/>
       <c r="V26" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','74742679','Fernández Talavera','Mar?a Luisa','2003-1-20','F','407137','955110505','',NULL,NULL,'Fernández Borja','John Frank','985295597','','Talavera','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','74742679','Fernández Talavera','Mar?a Luisa','2003-1-20','F','407137','955110505','',NULL,NULL,'Fernández Borja','John Frank','985295597','','Talavera Diaz','Zulema',NULL,'');</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -5916,7 +6429,7 @@
         <v>23</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>1058</v>
+        <v>948</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>426</v>
@@ -5929,26 +6442,28 @@
         <v>24</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>694</v>
+        <v>585</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>836</v>
+        <v>727</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>951</v>
+        <v>842</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="S27" s="2"/>
+        <v>1047</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="T27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','62833455','Flores Cantillano','Gernando Andr?s','2007-9-30','M','467193','957415288','',NULL,NULL,'Flores Boza','Jaime','967246574','','Cantillano','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','62833455','Flores Cantillano','Gernando Andr?s','2007-9-30','M','467193','957415288','',NULL,NULL,'Flores Boza','Jaime','967246574','','Cantillano Ocampo','Luzmelita',NULL,'');</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -5990,26 +6505,28 @@
         <v>24</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>695</v>
+        <v>586</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>837</v>
+        <v>728</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>952</v>
+        <v>843</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="S28" s="2"/>
+        <v>1049</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>1050</v>
+      </c>
       <c r="T28" s="2" t="s">
-        <v>1000</v>
+        <v>891</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','84804541','García Blaya','?ngela Sofia','2005-1-25','F',NULL,'967105110','',NULL,NULL,'García Cabello','Reynaldo','969910377','','Blaya','','950632290','')</v>
+        <v>CALL pa_insertar_alumno('DNI','84804541','García Blaya','?ngela Sofia','2005-1-25','F',NULL,'967105110','',NULL,NULL,'García Cabello','Reynaldo','969910377','','Blaya Arce','Dorali','950632290','');</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -6051,26 +6568,28 @@
         <v>24</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>696</v>
+        <v>587</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>838</v>
+        <v>729</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>953</v>
+        <v>844</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="S29" s="2"/>
+        <v>1049</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>1050</v>
+      </c>
       <c r="T29" s="2" t="s">
-        <v>1001</v>
+        <v>891</v>
       </c>
       <c r="U29" s="2"/>
       <c r="V29" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','72830841','García Blaya','Mar?a Sonia','2003-12-31','F',NULL,'901196560','',NULL,NULL,'García Cabanillas','Gilbert','953134643','','Blaya','','999627121','')</v>
+        <v>CALL pa_insertar_alumno('DNI','72830841','García Blaya','Mar?a Sonia','2003-12-31','F',NULL,'901196560','',NULL,NULL,'García Cabanillas','Gilbert','953134643','','Blaya Arce','Dorali','950632290','');</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -6112,26 +6631,28 @@
         <v>24</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>697</v>
+        <v>588</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>839</v>
+        <v>730</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>954</v>
+        <v>845</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="S30" s="2"/>
+        <v>1051</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>1052</v>
+      </c>
       <c r="T30" s="2" t="s">
-        <v>1002</v>
+        <v>892</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','3170868','García García','Mar?a','2006-11-17','F',NULL,'988182877','',NULL,NULL,'García Cabrera','Wilber','924440964','','García','','958031062','')</v>
+        <v>CALL pa_insertar_alumno('DNI','3170868','García García','Mar?a','2006-11-17','F',NULL,'988182877','',NULL,NULL,'García Cabrera','Wilber','924440964','','García Huaman','Clarita','958031062','');</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -6173,26 +6694,28 @@
         <v>24</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>698</v>
+        <v>589</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>840</v>
+        <v>731</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>955</v>
+        <v>846</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="S31" s="2"/>
+        <v>1054</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>1053</v>
+      </c>
       <c r="T31" s="2" t="s">
-        <v>1003</v>
+        <v>893</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','28981540','García Gómez','Sonia','2003-12-6','F',NULL,'922626668','',NULL,NULL,'García Cabia','Raul','932139978','','Gómez','','933488368','')</v>
+        <v>CALL pa_insertar_alumno('DNI','28981540','García Gómez','Sonia','2003-12-6','F',NULL,'922626668','',NULL,NULL,'García Cabia','Raul','932139978','','Minchan Gutierrez','Luz Clarita','933488368','');</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -6234,26 +6757,28 @@
         <v>24</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>699</v>
+        <v>590</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>841</v>
+        <v>732</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>956</v>
+        <v>847</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="S32" s="2"/>
+        <v>1055</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>1056</v>
+      </c>
       <c r="T32" s="2" t="s">
-        <v>1004</v>
+        <v>894</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','10469570','García Martínez','Andr?s Odilio','2004-10-22','M',NULL,'962426153','',NULL,NULL,'García Cachay','Richard Raul','950340931','','Martínez','','920105997','')</v>
+        <v>CALL pa_insertar_alumno('DNI','10469570','García Martínez','Andr?s Odilio','2004-10-22','M',NULL,'962426153','',NULL,NULL,'García Cachay','Richard Raul','950340931','','Martínez Paucar','Patricia','920105997','');</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -6295,26 +6820,28 @@
         <v>24</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>700</v>
+        <v>591</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>842</v>
+        <v>733</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>957</v>
+        <v>848</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="S33" s="2"/>
+        <v>1057</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>1058</v>
+      </c>
       <c r="T33" s="2" t="s">
-        <v>1005</v>
+        <v>895</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','35261289','Garca Nicolás','Rosa Mar?a','2003-9-6','F',NULL,'928319953','',NULL,NULL,'Garca Cajaleon','Victor','951736299','','Nicolás','','920940279','')</v>
+        <v>CALL pa_insertar_alumno('DNI','35261289','Garca Nicolás','Rosa Mar?a','2003-9-6','F',NULL,'928319953','',NULL,NULL,'Garca Cajaleon','Victor','951736299','','Nicolás Mesia','Blanca','920940279','');</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -6356,26 +6883,28 @@
         <v>24</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>701</v>
+        <v>592</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>843</v>
+        <v>734</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="S34" s="2"/>
+        <v>1059</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>1060</v>
+      </c>
       <c r="T34" s="2" t="s">
-        <v>1006</v>
+        <v>896</v>
       </c>
       <c r="U34" s="2"/>
       <c r="V34" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','45898445','Jiménez Manzano','Laura Del Rosario','2007-10-30','F',NULL,'969335752','',NULL,NULL,'Jiménez Caceres','Manuel Guido',NULL,'','Manzano','','903717042','')</v>
+        <v>CALL pa_insertar_alumno('DNI','45898445','Jiménez Manzano','Laura Del Rosario','2007-10-30','F',NULL,'969335752','',NULL,NULL,'Jiménez Caceres','Manuel Guido',NULL,'','Manzano Espinoza','Xiomara','903717042','');</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -6417,26 +6946,28 @@
         <v>24</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>702</v>
+        <v>593</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>844</v>
+        <v>735</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="S35" s="2"/>
+        <v>1061</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>1062</v>
+      </c>
       <c r="T35" s="2" t="s">
-        <v>1007</v>
+        <v>897</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','22699649','López Calvo','Rebeca','2006-4-12','M',NULL,'934614768','',NULL,NULL,'López Caicedo','Remigio',NULL,'','Calvo','','985538389','')</v>
+        <v>CALL pa_insertar_alumno('DNI','22699649','López Calvo','Rebeca','2006-4-12','M',NULL,'934614768','',NULL,NULL,'López Caicedo','Remigio',NULL,'','Calvo Machado','Medally','985538389','');</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -6478,26 +7009,28 @@
         <v>24</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>703</v>
+        <v>594</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>845</v>
+        <v>736</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="S36" s="2"/>
+        <v>1063</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>1064</v>
+      </c>
       <c r="T36" s="2" t="s">
-        <v>1008</v>
+        <v>898</v>
       </c>
       <c r="U36" s="2"/>
       <c r="V36" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','30796276','López García','Andr?s','2003-4-21','M',NULL,'978939666','',NULL,NULL,'López Cadillo','Javier',NULL,'','García','','952909129','')</v>
+        <v>CALL pa_insertar_alumno('DNI','30796276','López García','Andr?s','2003-4-21','M',NULL,'978939666','',NULL,NULL,'López Cadillo','Javier',NULL,'','García Lazaro','Isabel','952909129','');</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -6539,26 +7072,28 @@
         <v>24</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>704</v>
+        <v>595</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>846</v>
+        <v>737</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="S37" s="2"/>
+        <v>1065</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>1066</v>
+      </c>
       <c r="T37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U37" s="2"/>
       <c r="V37" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','66637196','López Rueda','Jose Javier','2004-6-2','M',NULL,'929572233','',NULL,NULL,'López Caldas','Alex',NULL,'','Rueda','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','66637196','López Rueda','Jose Javier','2004-6-2','M',NULL,'929572233','',NULL,NULL,'López Caldas','Alex',NULL,'','Rueda Aranda','Maria Cecilia',NULL,'');</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -6600,26 +7135,28 @@
         <v>24</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>705</v>
+        <v>596</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>847</v>
+        <v>738</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="S38" s="2"/>
+        <v>1067</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>1068</v>
+      </c>
       <c r="T38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U38" s="2"/>
       <c r="V38" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','61821438','Abad Chavez',' Romar','2006-10-28','M',NULL,'988325569','',NULL,NULL,'Abad Cajaleon','Jhans Carlos',NULL,'','Chavez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','61821438','Abad Chavez',' Romar','2006-10-28','M',NULL,'988325569','',NULL,NULL,'Abad Cajaleon','Jhans Carlos',NULL,'','Chavez Vasquez','Teresa',NULL,'');</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -6661,7 +7198,7 @@
         <v>24</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>706</v>
+        <v>597</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>59</v>
@@ -6671,16 +7208,18 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="S39" s="2"/>
+        <v>1069</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>1070</v>
+      </c>
       <c r="T39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U39" s="2"/>
       <c r="V39" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','70080533','Acha Guerrero','Yasanali','2004-5-19','F',NULL,'988118327','',NULL,NULL,'Acha Casado','Juan Carlos',NULL,'','Guerrero','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','70080533','Acha Guerrero','Yasanali','2004-5-19','F',NULL,'988118327','',NULL,NULL,'Acha Casado','Juan Carlos',NULL,'','Guerrero Correa','Flor Isabel',NULL,'');</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -6722,26 +7261,28 @@
         <v>24</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>707</v>
+        <v>598</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>828</v>
+        <v>719</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="S40" s="2"/>
+        <v>1071</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>1072</v>
+      </c>
       <c r="T40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U40" s="2"/>
       <c r="V40" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','75797998','Acosta Santisteban','Maria Gisela','2004-8-8','F',NULL,'907796793','',NULL,NULL,'Acosta Casimiro','Michael',NULL,'','Santisteban','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','75797998','Acosta Santisteban','Maria Gisela','2004-8-8','F',NULL,'907796793','',NULL,NULL,'Acosta Casimiro','Michael',NULL,'','Santisteban Ita','Milagros Magaly',NULL,'');</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -6770,7 +7311,7 @@
         <v>23</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>1059</v>
+        <v>949</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>440</v>
@@ -6783,26 +7324,28 @@
         <v>24</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>708</v>
+        <v>599</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>848</v>
+        <v>739</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="S41" s="2"/>
+        <v>1073</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>1074</v>
+      </c>
       <c r="T41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U41" s="2"/>
       <c r="V41" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','42179802','Acuña Cervantes','Elmer','2006-11-15','M','436223','957923672','',NULL,NULL,'Acuña Casio','Emerson',NULL,'','Cervantes','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','42179802','Acuña Cervantes','Elmer','2006-11-15','M','436223','957923672','',NULL,NULL,'Acuña Casio','Emerson',NULL,'','Cervantes Malaspina','Lizbeth',NULL,'');</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -6831,7 +7374,7 @@
         <v>23</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>1060</v>
+        <v>950</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>441</v>
@@ -6844,26 +7387,28 @@
         <v>24</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>709</v>
+        <v>600</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>849</v>
+        <v>740</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="S42" s="2"/>
+        <v>1075</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>1076</v>
+      </c>
       <c r="T42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U42" s="2"/>
       <c r="V42" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','72367755','Acuña Diaz','Alexander','2005-10-7','M','426694','979354840','',NULL,NULL,'Acuña Casabona','Benito Gabriel',NULL,'','Diaz','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','72367755','Acuña Diaz','Alexander','2005-10-7','M','426694','979354840','',NULL,NULL,'Acuña Casabona','Benito Gabriel',NULL,'','Diaz Medina','Giselle',NULL,'');</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -6892,7 +7437,7 @@
         <v>33</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>1061</v>
+        <v>951</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>442</v>
@@ -6905,26 +7450,28 @@
         <v>24</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>710</v>
+        <v>601</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>850</v>
+        <v>741</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="S43" s="2"/>
+        <v>1077</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>1078</v>
+      </c>
       <c r="T43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U43" s="2"/>
       <c r="V43" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','76476977','Acuña Gil','Rosa Elvira','2004-7-17','F','430396','995978265','',NULL,NULL,'Acuña Castillo','Ernesto',NULL,'','Gil','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','76476977','Acuña Gil','Rosa Elvira','2004-7-17','F','430396','995978265','',NULL,NULL,'Acuña Castillo','Ernesto',NULL,'','Gil Rocca','Fernanda Luisa',NULL,'');</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -6953,7 +7500,7 @@
         <v>23</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>1062</v>
+        <v>952</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>443</v>
@@ -6966,26 +7513,28 @@
         <v>24</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>711</v>
+        <v>602</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>851</v>
+        <v>742</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="S44" s="2"/>
+        <v>1079</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>1080</v>
+      </c>
       <c r="T44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U44" s="2"/>
       <c r="V44" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','47478285','Acuña Marrufo','José Edgardo','2004-2-8','M','493337','910075288','',NULL,NULL,'Acuña Casatañeda','Jenhs Joe',NULL,'','Marrufo','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','47478285','Acuña Marrufo','José Edgardo','2004-2-8','M','493337','910075288','',NULL,NULL,'Acuña Casatañeda','Jenhs Joe',NULL,'','Marrufo Julcamoro','Teresa Isabel',NULL,'');</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -7014,7 +7563,7 @@
         <v>33</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>1063</v>
+        <v>953</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>444</v>
@@ -7027,7 +7576,7 @@
         <v>24</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>712</v>
+        <v>603</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>371</v>
@@ -7037,16 +7586,18 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="S45" s="2"/>
+        <v>1081</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>1082</v>
+      </c>
       <c r="T45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U45" s="2"/>
       <c r="V45" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','44449653','Acuña Marrufo','Rosita Elvira','2005-11-1','F','480935','944415847','',NULL,NULL,'Acuña Castro','Luis Alberto',NULL,'','Marrufo','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','44449653','Acuña Marrufo','Rosita Elvira','2005-11-1','F','480935','944415847','',NULL,NULL,'Acuña Castro','Luis Alberto',NULL,'','Marrufo Minchon','Gianera',NULL,'');</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -7075,7 +7626,7 @@
         <v>23</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>1064</v>
+        <v>954</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>445</v>
@@ -7088,26 +7639,28 @@
         <v>24</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>713</v>
+        <v>604</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>852</v>
+        <v>743</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="S46" s="2"/>
+        <v>1083</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>1084</v>
+      </c>
       <c r="T46" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U46" s="2"/>
       <c r="V46" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','76512864','Acuña Reyna','Juan','2003-1-28','M','484929','974397910','',NULL,NULL,'Acuña Caton','Yobert Rider',NULL,'','Reyna','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','76512864','Acuña Reyna','Juan','2003-1-28','M','484929','974397910','',NULL,NULL,'Acuña Caton','Yobert Rider',NULL,'','Reyna Perez','Mayra Patricia',NULL,'');</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -7136,7 +7689,7 @@
         <v>33</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>1065</v>
+        <v>955</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>446</v>
@@ -7149,26 +7702,28 @@
         <v>24</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>714</v>
+        <v>605</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>853</v>
+        <v>744</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="S47" s="2"/>
+        <v>1085</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>1086</v>
+      </c>
       <c r="T47" s="2" t="s">
-        <v>1009</v>
+        <v>899</v>
       </c>
       <c r="U47" s="2"/>
       <c r="V47" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','43346228','Aguilar Coronado','Cecy Lucy','2006-10-27','F','480647','941789170','',NULL,NULL,'Aguilar Trujillo','Jesus Felix',NULL,'','Coronado','','903158771','')</v>
+        <v>CALL pa_insertar_alumno('DNI','43346228','Aguilar Coronado','Cecy Lucy','2006-10-27','F','480647','941789170','',NULL,NULL,'Aguilar Trujillo','Jesus Felix',NULL,'','Coronado Palma','Vanessa','903158771','');</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -7197,7 +7752,7 @@
         <v>33</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>1066</v>
+        <v>956</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>447</v>
@@ -7210,26 +7765,28 @@
         <v>24</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>715</v>
+        <v>606</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>854</v>
+        <v>745</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="S48" s="2"/>
+        <v>1087</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>1088</v>
+      </c>
       <c r="T48" s="2" t="s">
-        <v>1010</v>
+        <v>900</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','46826585','Aguilar Garcia','Janeth Carolina','2004-11-22','F','424168','995746127','',NULL,NULL,'Aguilar Solis','Rony',NULL,'','Garcia','','989932141','')</v>
+        <v>CALL pa_insertar_alumno('DNI','46826585','Aguilar Garcia','Janeth Carolina','2004-11-22','F','424168','995746127','',NULL,NULL,'Aguilar Solis','Rony',NULL,'','Garcia Chavez','Sara','989932141','');</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -7258,7 +7815,7 @@
         <v>33</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>1067</v>
+        <v>957</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>448</v>
@@ -7271,26 +7828,28 @@
         <v>24</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>734</v>
+        <v>625</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>855</v>
+        <v>746</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>958</v>
+        <v>849</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="S49" s="2"/>
+        <v>1089</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>1090</v>
+      </c>
       <c r="T49" s="2" t="s">
-        <v>1011</v>
+        <v>901</v>
       </c>
       <c r="U49" s="2"/>
       <c r="V49" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','76795062','Aguilar Pérez','Mercy','2005-10-16','F','417304','985029656','',NULL,NULL,'Aguilar Contreras','Ronald Smith','938709040','','Pérez','','996257102','')</v>
+        <v>CALL pa_insertar_alumno('DNI','76795062','Aguilar Pérez','Mercy','2005-10-16','F','417304','985029656','',NULL,NULL,'Aguilar Contreras','Ronald Smith','938709040','','Pérez Roncal','Janny Patricia','996257102','');</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -7319,7 +7878,7 @@
         <v>23</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>1068</v>
+        <v>958</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>449</v>
@@ -7332,26 +7891,28 @@
         <v>24</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>735</v>
+        <v>626</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>856</v>
+        <v>747</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>959</v>
+        <v>850</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="S50" s="2"/>
+        <v>1091</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>1092</v>
+      </c>
       <c r="T50" s="2" t="s">
-        <v>1012</v>
+        <v>902</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','76398007','Aguinaga Fernandez','Toni','2004-6-3','M','408927','927535824','',NULL,NULL,'Aguinaga Campos','Jesus Javier','927392044','','Fernandez','','923397833','')</v>
+        <v>CALL pa_insertar_alumno('DNI','76398007','Aguinaga Fernandez','Toni','2004-6-3','M','408927','927535824','',NULL,NULL,'Aguinaga Campos','Jesus Javier','927392044','','Fernandez Flores','Adhely','923397833','');</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -7380,7 +7941,7 @@
         <v>33</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>1069</v>
+        <v>959</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>450</v>
@@ -7393,26 +7954,28 @@
         <v>24</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>736</v>
+        <v>627</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>857</v>
+        <v>748</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>960</v>
+        <v>851</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="S51" s="2"/>
+        <v>1093</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>1094</v>
+      </c>
       <c r="T51" s="2" t="s">
-        <v>1013</v>
+        <v>903</v>
       </c>
       <c r="U51" s="2"/>
       <c r="V51" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','44729740','Alcantara Heredia','Lupita Kristal','2007-9-12','F','449915','965365814','',NULL,NULL,'Alcantara Romero','Bruno','979645049','','Heredia','','947487935','')</v>
+        <v>CALL pa_insertar_alumno('DNI','44729740','Alcantara Heredia','Lupita Kristal','2007-9-12','F','449915','965365814','',NULL,NULL,'Alcantara Romero','Bruno','979645049','','Heredia Sanchez','Erika Luzmila','947487935','');</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -7441,7 +8004,7 @@
         <v>33</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>1070</v>
+        <v>960</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>451</v>
@@ -7454,26 +8017,28 @@
         <v>24</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>737</v>
+        <v>628</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>858</v>
+        <v>749</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>961</v>
+        <v>852</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="S52" s="2"/>
+        <v>1095</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>1096</v>
+      </c>
       <c r="T52" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U52" s="2"/>
       <c r="V52" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','45373642','Altamirano Espinoza','Anshela Janelly','2004-11-10','F','465748','975793888','',NULL,NULL,'Altamirano Córdova','Willy','949314658','','Espinoza','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','45373642','Altamirano Espinoza','Anshela Janelly','2004-11-10','F','465748','975793888','',NULL,NULL,'Altamirano Córdova','Willy','949314658','','Espinoza Saavedra','Jackeline',NULL,'');</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -7502,7 +8067,7 @@
         <v>33</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>1071</v>
+        <v>961</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>452</v>
@@ -7515,26 +8080,28 @@
         <v>24</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>738</v>
+        <v>629</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>859</v>
+        <v>750</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>962</v>
+        <v>853</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="S53" s="2"/>
+        <v>1097</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>1098</v>
+      </c>
       <c r="T53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U53" s="2"/>
       <c r="V53" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','33649143','Banda Cervantes','Maria Zenaida','2003-11-12','F','404588','921517763','',NULL,NULL,'Banda Cori','Edison','984032767','','Cervantes','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','33649143','Banda Cervantes','Maria Zenaida','2003-11-12','F','404588','921517763','',NULL,NULL,'Banda Cori','Edison','984032767','','Cervantes Ramos','Annyle Paola',NULL,'');</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -7563,7 +8130,7 @@
         <v>33</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>1072</v>
+        <v>962</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>453</v>
@@ -7576,26 +8143,28 @@
         <v>24</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>739</v>
+        <v>630</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>860</v>
+        <v>751</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>963</v>
+        <v>854</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="S54" s="2"/>
+        <v>1099</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>1100</v>
+      </c>
       <c r="T54" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U54" s="2"/>
       <c r="V54" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','40383677','Banda Cervantes','Nancy','2003-5-18','F','437782','910907104','',NULL,NULL,'Banda Flores','Bolfgan Roy','979937726','','Cervantes','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','40383677','Banda Cervantes','Nancy','2003-5-18','F','437782','910907104','',NULL,NULL,'Banda Flores','Bolfgan Roy','979937726','','Cervantes Ticeran','Angela',NULL,'');</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -7624,7 +8193,7 @@
         <v>23</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>1073</v>
+        <v>963</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>454</v>
@@ -7637,26 +8206,28 @@
         <v>24</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>740</v>
+        <v>631</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>861</v>
+        <v>752</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>964</v>
+        <v>855</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="S55" s="2"/>
+        <v>1101</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>1102</v>
+      </c>
       <c r="T55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U55" s="2"/>
       <c r="V55" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','46888936','Barba Leon','Cesar Alberto','2004-8-29','M','405262','928991975','',NULL,NULL,'Barba Cornejo','Sergio','974362850','','Leon','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','46888936','Barba Leon','Cesar Alberto','2004-8-29','M','405262','928991975','',NULL,NULL,'Barba Cornejo','Sergio','974362850','','Leon Silva','Brenda',NULL,'');</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -7685,7 +8256,7 @@
         <v>33</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>1074</v>
+        <v>964</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>455</v>
@@ -7698,26 +8269,28 @@
         <v>24</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>741</v>
+        <v>632</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>862</v>
+        <v>753</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>965</v>
+        <v>856</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="S56" s="2"/>
+        <v>1103</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>1104</v>
+      </c>
       <c r="T56" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U56" s="2"/>
       <c r="V56" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','71111415','Barboza Abad','Carolay Iveth','2006-8-3','F','436380','982476222','',NULL,NULL,'Barboza Flores','Paolo Ronald','905159087','','Abad','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','71111415','Barboza Abad','Carolay Iveth','2006-8-3','F','436380','982476222','',NULL,NULL,'Barboza Flores','Paolo Ronald','905159087','','Abad Torres','Teresa De Jesus',NULL,'');</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -7746,7 +8319,7 @@
         <v>23</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>1075</v>
+        <v>965</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>456</v>
@@ -7759,26 +8332,28 @@
         <v>24</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>742</v>
+        <v>633</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>863</v>
+        <v>754</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>966</v>
+        <v>857</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="S57" s="2"/>
+        <v>1105</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>1106</v>
+      </c>
       <c r="T57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U57" s="2"/>
       <c r="V57" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','72790280','Barboza Cholan','Willian Armando','2004-4-23','M','444805','940050628','',NULL,NULL,'Barboza Roque','Franco Juan','961447737','','Cholan','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','72790280','Barboza Cholan','Willian Armando','2004-4-23','M','444805','940050628','',NULL,NULL,'Barboza Roque','Franco Juan','961447737','','Cholan Varas','Maria ',NULL,'');</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -7807,7 +8382,7 @@
         <v>33</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>1076</v>
+        <v>966</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>457</v>
@@ -7820,26 +8395,28 @@
         <v>24</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>743</v>
+        <v>634</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>864</v>
+        <v>755</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>967</v>
+        <v>858</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="S58" s="2"/>
+        <v>1107</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>1022</v>
+      </c>
       <c r="T58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U58" s="2"/>
       <c r="V58" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','42209198','Barboza Davila','Elena','2004-7-4','F','494960','971190857','',NULL,NULL,'Barboza Reque','Ernesto Luis','903229632','','Davila','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','42209198','Barboza Davila','Elena','2004-7-4','F','494960','971190857','',NULL,NULL,'Barboza Reque','Ernesto Luis','903229632','','Davila Rojas','Ines',NULL,'');</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -7868,7 +8445,7 @@
         <v>33</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>1077</v>
+        <v>967</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>458</v>
@@ -7881,26 +8458,28 @@
         <v>24</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>744</v>
+        <v>635</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>865</v>
+        <v>756</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>968</v>
+        <v>859</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="S59" s="2"/>
+        <v>1108</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>1109</v>
+      </c>
       <c r="T59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U59" s="2"/>
       <c r="V59" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','74951687','Barboza Hurtado','Gisella','2005-9-30','F','473520','953018647','',NULL,NULL,'Barboza Chamorro','Jose Felipe','941561693','','Hurtado','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','74951687','Barboza Hurtado','Gisella','2005-9-30','F','473520','953018647','',NULL,NULL,'Barboza Chamorro','Jose Felipe','941561693','','Hurtado Chavez','Ruth Rosa',NULL,'');</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -7929,7 +8508,7 @@
         <v>23</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>1078</v>
+        <v>968</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>459</v>
@@ -7942,26 +8521,28 @@
         <v>24</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>745</v>
+        <v>636</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>866</v>
+        <v>757</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>969</v>
+        <v>860</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="S60" s="2"/>
+        <v>1110</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>1111</v>
+      </c>
       <c r="T60" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U60" s="2"/>
       <c r="V60" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','46187084','Bardales Panta','Cristhian Roy','2007-11-8','M','444976','985436336','',NULL,NULL,'Bardales Timoteo','Abel','980646651','','Panta','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','46187084','Bardales Panta','Cristhian Roy','2007-11-8','M','444976','985436336','',NULL,NULL,'Bardales Timoteo','Abel','980646651','','Panta Caballero','Vanessa Dayam',NULL,'');</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -8003,26 +8584,28 @@
         <v>24</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>746</v>
+        <v>637</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>867</v>
+        <v>758</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>970</v>
+        <v>861</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="S61" s="2"/>
+        <v>1112</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>1113</v>
+      </c>
       <c r="T61" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U61" s="2"/>
       <c r="V61" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','48094458','Barragan Izquierdo','Harletti Martha Mugny','2005-6-14','F',NULL,'958530793','',NULL,NULL,'Barragan Cortez','Dennys David','941334712','','Izquierdo','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','48094458','Barragan Izquierdo','Harletti Martha Mugny','2005-6-14','F',NULL,'958530793','',NULL,NULL,'Barragan Cortez','Dennys David','941334712','','Izquierdo Cancha','Mariluz Edilia',NULL,'');</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -8064,26 +8647,28 @@
         <v>24</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>747</v>
+        <v>638</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>868</v>
+        <v>759</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>971</v>
+        <v>862</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="S62" s="2"/>
+        <v>1114</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>1115</v>
+      </c>
       <c r="T62" s="2" t="s">
-        <v>1014</v>
+        <v>904</v>
       </c>
       <c r="U62" s="2"/>
       <c r="V62" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','73111499','Barrantes Delgado','Natalhy Del Pilar','2003-8-2','F',NULL,'975135510','',NULL,NULL,'Barrantes Cotrina','Ruben','991133414','','Delgado','','941203328','')</v>
+        <v>CALL pa_insertar_alumno('DNI','73111499','Barrantes Delgado','Natalhy Del Pilar','2003-8-2','F',NULL,'975135510','',NULL,NULL,'Barrantes Cotrina','Ruben','991133414','','Delgado Zorrilla','Eda Maritza','941203328','');</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -8125,26 +8710,28 @@
         <v>24</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>748</v>
+        <v>639</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>869</v>
+        <v>760</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>972</v>
+        <v>863</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="S63" s="2"/>
+        <v>1116</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>1117</v>
+      </c>
       <c r="T63" s="2" t="s">
-        <v>1015</v>
+        <v>905</v>
       </c>
       <c r="U63" s="2"/>
       <c r="V63" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','43705925','Barranzuela Jimenez','Randy Edu','2006-1-20','M',NULL,'979519233','',NULL,NULL,'Barranzuela Justo','Huber','938053028','','Jimenez','','946100390','')</v>
+        <v>CALL pa_insertar_alumno('DNI','43705925','Barranzuela Jimenez','Randy Edu','2006-1-20','M',NULL,'979519233','',NULL,NULL,'Barranzuela Justo','Huber','938053028','','Jimenez Alvarado','Estefany Norma','946100390','');</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -8186,26 +8773,28 @@
         <v>24</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>749</v>
+        <v>640</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>870</v>
+        <v>761</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="S64" s="2"/>
+        <v>1118</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>1119</v>
+      </c>
       <c r="T64" s="2" t="s">
-        <v>1016</v>
+        <v>906</v>
       </c>
       <c r="U64" s="2"/>
       <c r="V64" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','10115355','Barreto Delgado','Jacqueline Dolores','2005-9-24','F',NULL,'966684374','',NULL,NULL,'Barreto Deza','Roman Arturo',NULL,'','Delgado','','987328918','')</v>
+        <v>CALL pa_insertar_alumno('DNI','10115355','Barreto Delgado','Jacqueline Dolores','2005-9-24','F',NULL,'966684374','',NULL,NULL,'Barreto Deza','Roman Arturo',NULL,'','Delgado Chiquillo','Mily Pilar','987328918','');</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -8247,26 +8836,28 @@
         <v>24</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>750</v>
+        <v>641</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>871</v>
+        <v>762</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="S65" s="2"/>
+        <v>1120</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>1121</v>
+      </c>
       <c r="T65" s="2" t="s">
-        <v>1017</v>
+        <v>907</v>
       </c>
       <c r="U65" s="2"/>
       <c r="V65" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','72731392','Cabanillas Correa','Kattia','2005-8-3','F',NULL,'997133309','',NULL,NULL,'Cabanillas Davila','Ever',NULL,'','Correa','','929622848','')</v>
+        <v>CALL pa_insertar_alumno('DNI','72731392','Cabanillas Correa','Kattia','2005-8-3','F',NULL,'997133309','',NULL,NULL,'Cabanillas Davila','Ever',NULL,'','Correa Castro','Mirelle Stephany','929622848','');</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -8308,26 +8899,28 @@
         <v>24</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>751</v>
+        <v>642</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>872</v>
+        <v>763</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="S66" s="2"/>
+        <v>1122</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>1123</v>
+      </c>
       <c r="T66" s="2" t="s">
-        <v>1018</v>
+        <v>908</v>
       </c>
       <c r="U66" s="2"/>
       <c r="V66" t="str">
         <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','46914489','Cabanillas Diaz','Hulda Libni','2006-4-13','F',NULL,'985299120','',NULL,NULL,'Cabanillas De La Calle','Vladimir',NULL,'','Diaz','','931956718','')</v>
+        <v>CALL pa_insertar_alumno('DNI','46914489','Cabanillas Diaz','Hulda Libni','2006-4-13','F',NULL,'985299120','',NULL,NULL,'Cabanillas De La Calle','Vladimir',NULL,'','Diaz Espinoza','Greyci','931956718','');</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -8369,26 +8962,28 @@
         <v>24</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>752</v>
+        <v>643</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>873</v>
+        <v>764</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="S67" s="2"/>
+        <v>1124</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>1058</v>
+      </c>
       <c r="T67" s="2" t="s">
-        <v>1019</v>
+        <v>909</v>
       </c>
       <c r="U67" s="2"/>
       <c r="V67" t="str">
-        <f t="shared" si="0"/>
-        <v>CALL pa_insertar_alumno('DNI','48141788','Cabanillas Rabanal','Edelia Yuliana','2006-9-23','F',NULL,'900367031','',NULL,NULL,'Cabanillas Bravo','Percy',NULL,'','Rabanal','','992391303','')</v>
+        <f t="shared" ref="V67:V130" si="1">CONCATENATE("CALL pa_insertar_alumno('",A67,"','",B67,"','",C67,"','",D67,"','",E67,"-",F67,"-",G67,"','",H67,"',",IF(I67="NULL","NULL",CONCATENATE("'",I67,"'")),",'",J67,"','",K67,"',",IF(L67="NULL","NULL",CONCATENATE("'",L67,"'")),",",IF(M67="NULL","NULL",CONCATENATE("'",M67,"'")),",'",N67,"','",O67,"',",IF(P67="NULL","NULL",CONCATENATE("'",P67,"'")),",",IF(Q67="NULL","NULL",CONCATENATE("'",Q67,"'")),",'",R67,"','",S67,"',",IF(T67="NULL","NULL",CONCATENATE("'",T67,"'")),",",IF(U67="NULL","NULL",CONCATENATE("'",U67,"'")),");")</f>
+        <v>CALL pa_insertar_alumno('DNI','48141788','Cabanillas Rabanal','Edelia Yuliana','2006-9-23','F',NULL,'900367031','',NULL,NULL,'Cabanillas Bravo','Percy',NULL,'','Rabanal Figueroa','Blanca','992391303','');</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -8430,26 +9025,28 @@
         <v>24</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>753</v>
+        <v>644</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>874</v>
+        <v>765</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="S68" s="2"/>
+        <v>1125</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>1126</v>
+      </c>
       <c r="T68" s="2" t="s">
-        <v>1020</v>
+        <v>910</v>
       </c>
       <c r="U68" s="2"/>
       <c r="V68" t="str">
-        <f t="shared" ref="V68:V131" si="1">CONCATENATE("CALL pa_insertar_alumno('",A68,"','",B68,"','",C68,"','",D68,"','",E68,"-",F68,"-",G68,"','",H68,"',",IF(I68="NULL","NULL",CONCATENATE("'",I68,"'")),",'",J68,"','",K68,"',",IF(L68="NULL","NULL",CONCATENATE("'",L68,"'")),",",IF(M68="NULL","NULL",CONCATENATE("'",M68,"'")),",'",N68,"','",O68,"',",IF(P68="NULL","NULL",CONCATENATE("'",P68,"'")),",",IF(Q68="NULL","NULL",CONCATENATE("'",Q68,"'")),",'",R68,"','",S68,"',",IF(T68="NULL","NULL",CONCATENATE("'",T68,"'")),",",IF(U68="NULL","NULL",CONCATENATE("'",U68,"'")),")")</f>
-        <v>CALL pa_insertar_alumno('DNI','47635540','Cabanillas Reyna','Melissa','2007-4-28','F',NULL,'964534529','',NULL,NULL,'Cabanillas Broncano','Rodolfo',NULL,'','Reyna','','977677192','')</v>
+        <f t="shared" si="1"/>
+        <v>CALL pa_insertar_alumno('DNI','47635540','Cabanillas Reyna','Melissa','2007-4-28','F',NULL,'964534529','',NULL,NULL,'Cabanillas Broncano','Rodolfo',NULL,'','Reyna Gomez','Mariela','977677192','');</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -8491,26 +9088,28 @@
         <v>24</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>754</v>
+        <v>645</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>875</v>
+        <v>766</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="S69" s="2"/>
+        <v>1127</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>1128</v>
+      </c>
       <c r="T69" s="2" t="s">
-        <v>1021</v>
+        <v>911</v>
       </c>
       <c r="U69" s="2"/>
       <c r="V69" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','71829747','Cáceres Malca','Karem Saraí','2006-4-21','F',NULL,'957013802','',NULL,NULL,'Cáceres Cruz','Alejandro',NULL,'','Malca','','939378737','')</v>
+        <v>CALL pa_insertar_alumno('DNI','71829747','Cáceres Malca','Karem Saraí','2006-4-21','F',NULL,'957013802','',NULL,NULL,'Cáceres Cruz','Alejandro',NULL,'','Malca Barreto','Blanca Cesilia','939378737','');</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -8552,26 +9151,28 @@
         <v>24</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>755</v>
+        <v>646</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>876</v>
+        <v>767</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="S70" s="2"/>
+        <v>1129</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>1130</v>
+      </c>
       <c r="T70" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U70" s="2"/>
       <c r="V70" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','71095100','Diaz Cruz','Cinthia Liliana','2004-4-27','F',NULL,'987795098','',NULL,NULL,'Diaz Cabello','Carlos Edil',NULL,'','Cruz','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','71095100','Diaz Cruz','Cinthia Liliana','2004-4-27','F',NULL,'987795098','',NULL,NULL,'Diaz Cabello','Carlos Edil',NULL,'','Cruz Trejo','Lourdes',NULL,'');</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -8613,26 +9214,28 @@
         <v>24</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>756</v>
+        <v>647</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>877</v>
+        <v>768</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="S71" s="2"/>
+        <v>1131</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>1132</v>
+      </c>
       <c r="T71" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U71" s="2"/>
       <c r="V71" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','46490465','Delgado Perez','Saema Rubi','2007-8-21','F',NULL,'998618518','',NULL,NULL,'Delgado Cespedes','Yori Yoon',NULL,'','Perez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','46490465','Delgado Perez','Saema Rubi','2007-8-21','F',NULL,'998618518','',NULL,NULL,'Delgado Cespedes','Yori Yoon',NULL,'','Perez Macedo','Gloria Edith',NULL,'');</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -8674,26 +9277,28 @@
         <v>24</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>757</v>
+        <v>648</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>878</v>
+        <v>769</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="S72" s="2"/>
+        <v>1133</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>1134</v>
+      </c>
       <c r="T72" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U72" s="2"/>
       <c r="V72" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','46295545','Fernandez Bernal','Maria Leidy','2003-8-23','F',NULL,'978911900','',NULL,NULL,'Fernandez Cheppe','Sixto Raul',NULL,'','Bernal','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','46295545','Fernandez Bernal','Maria Leidy','2003-8-23','F',NULL,'978911900','',NULL,NULL,'Fernandez Cheppe','Sixto Raul',NULL,'','Bernal Luna','Karen Selene',NULL,'');</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -8735,26 +9340,28 @@
         <v>24</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>758</v>
+        <v>649</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>879</v>
+        <v>770</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="S73" s="2"/>
+        <v>1135</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>1136</v>
+      </c>
       <c r="T73" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U73" s="2"/>
       <c r="V73" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','41618402','Fernandez Campos','Silvia','2005-4-29','F',NULL,'972601717','',NULL,NULL,'Fernandez Zevallos','Sandro',NULL,'','Campos','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','41618402','Fernandez Campos','Silvia','2005-4-29','F',NULL,'972601717','',NULL,NULL,'Fernandez Zevallos','Sandro',NULL,'','Campos Meza','Melva',NULL,'');</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -8783,7 +9390,7 @@
         <v>33</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>1079</v>
+        <v>969</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>473</v>
@@ -8796,26 +9403,28 @@
         <v>24</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>759</v>
+        <v>650</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>880</v>
+        <v>771</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="S74" s="2"/>
+        <v>1137</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>1138</v>
+      </c>
       <c r="T74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U74" s="2"/>
       <c r="V74" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','45914683','Flores Crespo','Giovana Sthefani','2006-11-24','F','439740','974044025','',NULL,NULL,'Flores Matias','Julio',NULL,'','Crespo','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','45914683','Flores Crespo','Giovana Sthefani','2006-11-24','F','439740','974044025','',NULL,NULL,'Flores Matias','Julio',NULL,'','Crespo Ureta','Mayumi',NULL,'');</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -8844,7 +9453,7 @@
         <v>33</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>1080</v>
+        <v>970</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>474</v>
@@ -8857,26 +9466,28 @@
         <v>24</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>881</v>
+        <v>772</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="S75" s="2"/>
+        <v>1139</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>1140</v>
+      </c>
       <c r="T75" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U75" s="2"/>
       <c r="V75" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','72210217','Flores Parinango','Consuelo Juneth','2003-8-9','F','411164','988516352','',NULL,NULL,'Flores Alejo','Federico Emerzon',NULL,'','Parinango','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','72210217','Flores Parinango','Consuelo Juneth','2003-8-9','F','411164','988516352','',NULL,NULL,'Flores Alejo','Federico Emerzon',NULL,'','Parinango Molina','Dominga',NULL,'');</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -8905,7 +9516,7 @@
         <v>33</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>1081</v>
+        <v>971</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>475</v>
@@ -8918,26 +9529,28 @@
         <v>24</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>761</v>
+        <v>652</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>882</v>
+        <v>773</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="S76" s="2"/>
+        <v>1141</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>1142</v>
+      </c>
       <c r="T76" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U76" s="2"/>
       <c r="V76" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','42435168','Gabriel Ticlla','Maria Magdalena','2007-8-15','F','432566','997908461','',NULL,NULL,'Gabriel Figueredo','William',NULL,'','Ticlla','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','42435168','Gabriel Ticlla','Maria Magdalena','2007-8-15','F','432566','997908461','',NULL,NULL,'Gabriel Figueredo','William',NULL,'','Ticlla Palomino','Karen ',NULL,'');</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -8966,7 +9579,7 @@
         <v>33</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>1082</v>
+        <v>972</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>476</v>
@@ -8979,26 +9592,28 @@
         <v>24</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>762</v>
+        <v>653</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>883</v>
+        <v>774</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="S77" s="2"/>
+        <v>1143</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>1144</v>
+      </c>
       <c r="T77" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U77" s="2"/>
       <c r="V77" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','76201700','Gálvez Calderón','Guisela','2006-12-9','F','465860','990616052','',NULL,NULL,'Gálvez Ponce','Héctor',NULL,'','Calderón','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','76201700','Gálvez Calderón','Guisela','2006-12-9','F','465860','990616052','',NULL,NULL,'Gálvez Ponce','Héctor',NULL,'','Calderón Mejia','Gaby Pilar',NULL,'');</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -9027,7 +9642,7 @@
         <v>33</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>1083</v>
+        <v>973</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>477</v>
@@ -9040,26 +9655,28 @@
         <v>24</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>763</v>
+        <v>654</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>884</v>
+        <v>775</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="S78" s="2"/>
+        <v>1145</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>1146</v>
+      </c>
       <c r="T78" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U78" s="2"/>
       <c r="V78" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','72166339','Gil Perez','Ghisela Lisseth','2004-6-3','F','441165','972947498','',NULL,NULL,'Gil Diaz','Guillermo Renato',NULL,'','Perez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','72166339','Gil Perez','Ghisela Lisseth','2004-6-3','F','441165','972947498','',NULL,NULL,'Gil Diaz','Guillermo Renato',NULL,'','Perez Santos','Dina',NULL,'');</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -9088,7 +9705,7 @@
         <v>33</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>1084</v>
+        <v>974</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>478</v>
@@ -9101,26 +9718,28 @@
         <v>24</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>764</v>
+        <v>655</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>885</v>
+        <v>776</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>973</v>
+        <v>864</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="S79" s="2"/>
+        <v>1147</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>1148</v>
+      </c>
       <c r="T79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U79" s="2"/>
       <c r="V79" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','16711696','Gonzales Morales','Ruth Kelly','2006-10-2','F','482484','962972628','',NULL,NULL,'Gonzales Pozo','Luis Gustabo','989829825','','Morales','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','16711696','Gonzales Morales','Ruth Kelly','2006-10-2','F','482484','962972628','',NULL,NULL,'Gonzales Pozo','Luis Gustabo','989829825','','Morales Salvador','Norka',NULL,'');</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -9149,7 +9768,7 @@
         <v>33</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>1085</v>
+        <v>975</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>479</v>
@@ -9162,26 +9781,28 @@
         <v>24</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>765</v>
+        <v>656</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>844</v>
+        <v>735</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>974</v>
+        <v>865</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="S80" s="2"/>
+        <v>1149</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>1150</v>
+      </c>
       <c r="T80" s="2" t="s">
-        <v>1022</v>
+        <v>912</v>
       </c>
       <c r="U80" s="2"/>
       <c r="V80" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','44733989','Hernandez Penas','Linda Greinsy','2004-6-21','F','479266','990315445','',NULL,NULL,'Hernandez Vilca','Remigio','900266981','','Penas','','935125680','')</v>
+        <v>CALL pa_insertar_alumno('DNI','44733989','Hernandez Penas','Linda Greinsy','2004-6-21','F','479266','990315445','',NULL,NULL,'Hernandez Vilca','Remigio','900266981','','Penas Santos','Veronica','935125680','');</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -9210,7 +9831,7 @@
         <v>33</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>1086</v>
+        <v>976</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>480</v>
@@ -9223,26 +9844,28 @@
         <v>24</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>766</v>
+        <v>657</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>886</v>
+        <v>777</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>975</v>
+        <v>866</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="S81" s="2"/>
+        <v>1151</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>1152</v>
+      </c>
       <c r="T81" s="2" t="s">
-        <v>1023</v>
+        <v>913</v>
       </c>
       <c r="U81" s="2"/>
       <c r="V81" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','70999965','Herrera Cieza','Elisbeth','2007-5-4','F','481791','976929379','',NULL,NULL,'Herrera Jesus','Jerson','918624186','','Cieza','','921404842','')</v>
+        <v>CALL pa_insertar_alumno('DNI','70999965','Herrera Cieza','Elisbeth','2007-5-4','F','481791','976929379','',NULL,NULL,'Herrera Jesus','Jerson','918624186','','Cieza Alvarez','Mireya','921404842','');</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -9271,7 +9894,7 @@
         <v>23</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>1087</v>
+        <v>977</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>481</v>
@@ -9284,26 +9907,28 @@
         <v>24</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>767</v>
+        <v>658</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>887</v>
+        <v>778</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>976</v>
+        <v>867</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="S82" s="2"/>
+        <v>1153</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>1154</v>
+      </c>
       <c r="T82" s="2" t="s">
-        <v>1024</v>
+        <v>914</v>
       </c>
       <c r="U82" s="2"/>
       <c r="V82" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','47853109','Huaman Silva','Luis Guilmer','2003-3-22','M','493476','933017890','',NULL,NULL,'Huaman Santa','Jhosimar','970933323','','Silva','','957256973','')</v>
+        <v>CALL pa_insertar_alumno('DNI','47853109','Huaman Silva','Luis Guilmer','2003-3-22','M','493476','933017890','',NULL,NULL,'Huaman Santa','Jhosimar','970933323','','Silva Lazaro','Karina Lourdes','957256973','');</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -9332,7 +9957,7 @@
         <v>23</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>1088</v>
+        <v>978</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>482</v>
@@ -9345,26 +9970,28 @@
         <v>24</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>768</v>
+        <v>659</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>888</v>
+        <v>779</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>977</v>
+        <v>868</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="S83" s="2"/>
+        <v>1155</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>1156</v>
+      </c>
       <c r="T83" s="2" t="s">
-        <v>1025</v>
+        <v>915</v>
       </c>
       <c r="U83" s="2"/>
       <c r="V83" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','71910126','Irigoin Neira','Alfonso','2005-9-4','M','406975','952452363','',NULL,NULL,'Irigoin Gonzales','Fredy David','952270660','','Neira','','941476337','')</v>
+        <v>CALL pa_insertar_alumno('DNI','71910126','Irigoin Neira','Alfonso','2005-9-4','M','406975','952452363','',NULL,NULL,'Irigoin Gonzales','Fredy David','952270660','','Neira Santa Cruz','Antonieta','941476337','');</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -9406,26 +10033,28 @@
         <v>24</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>769</v>
+        <v>660</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>59</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>978</v>
+        <v>869</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="S84" s="2"/>
+        <v>1157</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="T84" s="2" t="s">
-        <v>1026</v>
+        <v>916</v>
       </c>
       <c r="U84" s="2"/>
       <c r="V84" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','16692016','Inchaustegui Degola','Jose Paolo','2007-11-16','M',NULL,'984680974','',NULL,NULL,'Inchaustegui Marrujo','Juan Carlos','950490955','','Degola','','956126209','')</v>
+        <v>CALL pa_insertar_alumno('DNI','16692016','Inchaustegui Degola','Jose Paolo','2007-11-16','M',NULL,'984680974','',NULL,NULL,'Inchaustegui Marrujo','Juan Carlos','950490955','','Degola Rivas','Nancy','956126209','');</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
@@ -9467,26 +10096,28 @@
         <v>24</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>770</v>
+        <v>661</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>889</v>
+        <v>780</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="S85" s="2"/>
+        <v>1158</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>1159</v>
+      </c>
       <c r="T85" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U85" s="2"/>
       <c r="V85" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','41283168','Julian Fernandez','Maria Mercedes','2007-11-7','F',NULL,'941746848','',NULL,NULL,'Julian Falcón','Carlos Alberto',NULL,'','Fernandez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','41283168','Julian Fernandez','Maria Mercedes','2007-11-7','F',NULL,'941746848','',NULL,NULL,'Julian Falcón','Carlos Alberto',NULL,'','Fernandez Pantoja','Grimaldina',NULL,'');</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -9528,26 +10159,28 @@
         <v>24</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>771</v>
+        <v>662</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>890</v>
+        <v>781</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="S86" s="2"/>
+        <v>1160</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>1161</v>
+      </c>
       <c r="T86" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U86" s="2"/>
       <c r="V86" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','70902618','Julca Tello','Maritza Llanet','2005-10-26','F',NULL,'927387648','',NULL,NULL,'Julca Colqui','Olimpio',NULL,'','Tello','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','70902618','Julca Tello','Maritza Llanet','2005-10-26','F',NULL,'927387648','',NULL,NULL,'Julca Colqui','Olimpio',NULL,'','Tello Guzman','Diana',NULL,'');</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -9589,26 +10222,28 @@
         <v>24</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>772</v>
+        <v>663</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>891</v>
+        <v>782</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="S87" s="2"/>
+        <v>1162</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>1163</v>
+      </c>
       <c r="T87" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U87" s="2"/>
       <c r="V87" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','43478463','Jimenez Carrasco','Jose Victor','2007-8-5','M',NULL,'915607021','',NULL,NULL,'Jimenez Galindo','Roberto Carlos',NULL,'','Carrasco','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','43478463','Jimenez Carrasco','Jose Victor','2007-8-5','M',NULL,'915607021','',NULL,NULL,'Jimenez Galindo','Roberto Carlos',NULL,'','Carrasco Medrano','Arelis Marleny',NULL,'');</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
@@ -9650,26 +10285,28 @@
         <v>24</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>773</v>
+        <v>664</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>845</v>
+        <v>736</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="S88" s="2"/>
+        <v>1164</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>1165</v>
+      </c>
       <c r="T88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U88" s="2"/>
       <c r="V88" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','61914187','Leon Castillo','Reyner Gabriel','2005-8-8','F',NULL,'967305555','',NULL,NULL,'Leon Dionicio','Javier',NULL,'','Castillo','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','61914187','Leon Castillo','Reyner Gabriel','2005-8-8','F',NULL,'967305555','',NULL,NULL,'Leon Dionicio','Javier',NULL,'','Castillo Soto','Anita',NULL,'');</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -9711,26 +10348,28 @@
         <v>24</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>774</v>
+        <v>665</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>892</v>
+        <v>783</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="S89" s="2"/>
+        <v>1166</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>1167</v>
+      </c>
       <c r="T89" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U89" s="2"/>
       <c r="V89" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','33674208','La Madrid SalinaS','Aldemir Daghir','2007-4-8','M',NULL,'910740346','',NULL,NULL,'La Madrid Espinoza','Tony',NULL,'','Salinas','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','33674208','La Madrid SalinaS','Aldemir Daghir','2007-4-8','M',NULL,'910740346','',NULL,NULL,'La Madrid Espinoza','Tony',NULL,'','Salinas Salcedo','Jezzy',NULL,'');</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -9772,26 +10411,28 @@
         <v>24</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>775</v>
+        <v>666</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>893</v>
+        <v>784</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="S90" s="2"/>
+        <v>1168</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>1169</v>
+      </c>
       <c r="T90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U90" s="2"/>
       <c r="V90" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','47476191','Leon Sepulveda','Giovanni','2007-10-20','F',NULL,'957155812','',NULL,NULL,'Leon Alejandro','Hector Demetrio',NULL,'','Sepulveda','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','47476191','Leon Sepulveda','Giovanni','2007-10-20','F',NULL,'957155812','',NULL,NULL,'Leon Alejandro','Hector Demetrio',NULL,'','Sepulveda Torres','Gabriela',NULL,'');</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
@@ -9833,26 +10474,28 @@
         <v>24</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>776</v>
+        <v>667</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>848</v>
+        <v>739</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="S91" s="2"/>
+        <v>1170</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>1171</v>
+      </c>
       <c r="T91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U91" s="2"/>
       <c r="V91" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','73318797','Linares Carhuajulca','Miriam Yudith','2006-1-20','F',NULL,'955575430','',NULL,NULL,'Linares Bueno','Emerson',NULL,'','Carhuajulca','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','73318797','Linares Carhuajulca','Miriam Yudith','2006-1-20','F',NULL,'955575430','',NULL,NULL,'Linares Bueno','Emerson',NULL,'','Carhuajulca Diaz','Miriam',NULL,'');</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -9894,26 +10537,28 @@
         <v>24</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>777</v>
+        <v>668</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>894</v>
+        <v>785</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="S92" s="2"/>
+        <v>1172</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>1173</v>
+      </c>
       <c r="T92" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U92" s="2"/>
       <c r="V92" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','42777315','Macalupu Rodriguez','Rosmery Madeleine','2006-6-14','F',NULL,'909177169','',NULL,NULL,'Macalupu Espíritu','Daniel Hermelindo',NULL,'','Rodriguez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','42777315','Macalupu Rodriguez','Rosmery Madeleine','2006-6-14','F',NULL,'909177169','',NULL,NULL,'Macalupu Espíritu','Daniel Hermelindo',NULL,'','Rodriguez Guizado','Luz Amparo',NULL,'');</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
@@ -9955,26 +10600,28 @@
         <v>24</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>778</v>
+        <v>669</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>895</v>
+        <v>786</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="S93" s="2"/>
+        <v>1174</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>1175</v>
+      </c>
       <c r="T93" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U93" s="2"/>
       <c r="V93" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','71084642','Malca Cruz','Carlos Darwin','2003-2-28','M',NULL,'959112363','',NULL,NULL,'Malca Dominguez','Dare',NULL,'','Cruz','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','71084642','Malca Cruz','Carlos Darwin','2003-2-28','M',NULL,'959112363','',NULL,NULL,'Malca Dominguez','Dare',NULL,'','Cruz Cardenas','Sumara Luz',NULL,'');</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
@@ -10016,26 +10663,28 @@
         <v>24</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>779</v>
+        <v>670</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>836</v>
+        <v>727</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="S94" s="2"/>
+        <v>1176</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>1177</v>
+      </c>
       <c r="T94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U94" s="2"/>
       <c r="V94" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','78020242','Malca Delgado','Ana Isabel','2007-9-4','F',NULL,'978010272','',NULL,NULL,'Malca Gomez','Jaime',NULL,'','Delgado','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','78020242','Malca Delgado','Ana Isabel','2007-9-4','F',NULL,'978010272','',NULL,NULL,'Malca Gomez','Jaime',NULL,'','Delgado Quilla','Camilia Lucia',NULL,'');</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
@@ -10077,7 +10726,7 @@
         <v>24</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>780</v>
+        <v>671</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>394</v>
@@ -10087,16 +10736,18 @@
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="S95" s="2"/>
+        <v>1178</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>1179</v>
+      </c>
       <c r="T95" s="2" t="s">
-        <v>1027</v>
+        <v>917</v>
       </c>
       <c r="U95" s="2"/>
       <c r="V95" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','44747099','Mera Mori','Juan Jose','2006-12-17','M',NULL,'984349968','',NULL,NULL,'Mera Mariño','Joel',NULL,'','Mori','','926898941','')</v>
+        <v>CALL pa_insertar_alumno('DNI','44747099','Mera Mori','Juan Jose','2006-12-17','M',NULL,'984349968','',NULL,NULL,'Mera Mariño','Joel',NULL,'','Mori Arana','Sofia','926898941','');</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -10138,26 +10789,28 @@
         <v>24</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>781</v>
+        <v>672</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>896</v>
+        <v>787</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="S96" s="2"/>
+        <v>1180</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>1181</v>
+      </c>
       <c r="T96" s="2" t="s">
-        <v>1028</v>
+        <v>918</v>
       </c>
       <c r="U96" s="2"/>
       <c r="V96" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','70070480','Melendez Rojas','Manuel Gabriel','2007-3-24','M',NULL,'961938069','',NULL,NULL,'Melendez Duran','Jair ',NULL,'','Rojas','','933028382','')</v>
+        <v>CALL pa_insertar_alumno('DNI','70070480','Melendez Rojas','Manuel Gabriel','2007-3-24','M',NULL,'961938069','',NULL,NULL,'Melendez Duran','Jair ',NULL,'','Rojas Quispe','Gabriela Pamela','933028382','');</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -10186,7 +10839,7 @@
         <v>33</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>1089</v>
+        <v>979</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>496</v>
@@ -10199,26 +10852,28 @@
         <v>24</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>782</v>
+        <v>673</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>897</v>
+        <v>788</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="S97" s="2"/>
+        <v>1182</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>1183</v>
+      </c>
       <c r="T97" s="2" t="s">
-        <v>1029</v>
+        <v>919</v>
       </c>
       <c r="U97" s="2"/>
       <c r="V97" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','47918678','Nuñez Peralta','Jojana Lizet','2003-8-16','F','413365','999976367','',NULL,NULL,'Nuñez Palacios','Rufino Joel',NULL,'','Peralta','','920825990','')</v>
+        <v>CALL pa_insertar_alumno('DNI','47918678','Nuñez Peralta','Jojana Lizet','2003-8-16','F','413365','999976367','',NULL,NULL,'Nuñez Palacios','Rufino Joel',NULL,'','Peralta Chura','Ruby ','920825990','');</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
@@ -10247,7 +10902,7 @@
         <v>23</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>1090</v>
+        <v>980</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>497</v>
@@ -10260,26 +10915,28 @@
         <v>24</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>783</v>
+        <v>674</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>898</v>
+        <v>789</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="S98" s="2"/>
+        <v>1184</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>1185</v>
+      </c>
       <c r="T98" s="2" t="s">
-        <v>1030</v>
+        <v>920</v>
       </c>
       <c r="U98" s="2"/>
       <c r="V98" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','72731413','Nuñez Torres','Raul Martin','2004-11-24','M','448060','988368329','',NULL,NULL,'Nuñez Mariño','Angel Gabriel',NULL,'','Torres','','996665515','')</v>
+        <v>CALL pa_insertar_alumno('DNI','72731413','Nuñez Torres','Raul Martin','2004-11-24','M','448060','988368329','',NULL,NULL,'Nuñez Mariño','Angel Gabriel',NULL,'','Torres Condori','Marat','996665515','');</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -10308,7 +10965,7 @@
         <v>33</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>1091</v>
+        <v>981</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>498</v>
@@ -10321,26 +10978,28 @@
         <v>24</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>784</v>
+        <v>675</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>899</v>
+        <v>790</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="S99" s="2"/>
+        <v>1186</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>1187</v>
+      </c>
       <c r="T99" s="2" t="s">
-        <v>1031</v>
+        <v>921</v>
       </c>
       <c r="U99" s="2"/>
       <c r="V99" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','42949047','Oblitas Davila','Amberle','2003-2-15','F','465462','980224190','',NULL,NULL,'Oblitas Ramos','Lazaro Carlos',NULL,'','Davila','','906779224','')</v>
+        <v>CALL pa_insertar_alumno('DNI','42949047','Oblitas Davila','Amberle','2003-2-15','F','465462','980224190','',NULL,NULL,'Oblitas Ramos','Lazaro Carlos',NULL,'','Davila Castelo','Miriam Daniela','906779224','');</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
@@ -10369,7 +11028,7 @@
         <v>23</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>1092</v>
+        <v>982</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>499</v>
@@ -10382,26 +11041,28 @@
         <v>24</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>785</v>
+        <v>676</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>900</v>
+        <v>791</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>979</v>
+        <v>870</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="S100" s="2"/>
+        <v>1188</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>1189</v>
+      </c>
       <c r="T100" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U100" s="2"/>
       <c r="V100" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','70071681','Obando Barboza','Kristian Davis','2007-12-14','M','488801','965963122','',NULL,NULL,'Obando Evaristo','Efrain','950255564','','Barboza','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','70071681','Obando Barboza','Kristian Davis','2007-12-14','M','488801','965963122','',NULL,NULL,'Obando Evaristo','Efrain','950255564','','Barboza Cortez','Mayra Isabel',NULL,'');</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
@@ -10430,7 +11091,7 @@
         <v>33</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>1093</v>
+        <v>983</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>500</v>
@@ -10443,26 +11104,28 @@
         <v>24</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>786</v>
+        <v>677</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>901</v>
+        <v>792</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>980</v>
+        <v>871</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="S101" s="2"/>
+        <v>1190</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>1191</v>
+      </c>
       <c r="T101" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U101" s="2"/>
       <c r="V101" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','46565370','Olivera Ordoñez','Kety Margoth','2007-9-28','F','410585','977973750','',NULL,NULL,'Olivera Alejo','Ever Jair','913569942','','Ordoñez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','46565370','Olivera Ordoñez','Kety Margoth','2007-9-28','F','410585','977973750','',NULL,NULL,'Olivera Alejo','Ever Jair','913569942','','Ordoñez Castelo','Zenaida',NULL,'');</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
@@ -10491,7 +11154,7 @@
         <v>33</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>1094</v>
+        <v>984</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>501</v>
@@ -10504,26 +11167,28 @@
         <v>24</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>787</v>
+        <v>678</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>902</v>
+        <v>793</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>981</v>
+        <v>872</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="S102" s="2"/>
+        <v>1192</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>1193</v>
+      </c>
       <c r="T102" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U102" s="2"/>
       <c r="V102" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','77042995','Ortiz Delgado','Flor Hermelinda','2007-3-24','F','490384','940499601','',NULL,NULL,'Ortiz Criollo','Elisio','974165436','','Delgado','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','77042995','Ortiz Delgado','Flor Hermelinda','2007-3-24','F','490384','940499601','',NULL,NULL,'Ortiz Criollo','Elisio','974165436','','Delgado Medina','Elgia',NULL,'');</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -10552,7 +11217,7 @@
         <v>23</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>1095</v>
+        <v>985</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>502</v>
@@ -10565,26 +11230,28 @@
         <v>24</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>788</v>
+        <v>679</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>818</v>
+        <v>709</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>982</v>
+        <v>873</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="S103" s="2"/>
+        <v>1194</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>1195</v>
+      </c>
       <c r="T103" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U103" s="2"/>
       <c r="V103" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','47221131','Pacheco Pintado','Marcos Jhonatan','2007-12-4','M','435843','919838605','',NULL,NULL,'Pacheco Noreña','Nicolas','934752890','','Pintado','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','47221131','Pacheco Pintado','Marcos Jhonatan','2007-12-4','M','435843','919838605','',NULL,NULL,'Pacheco Noreña','Nicolas','934752890','','Pintado Vilca','Katerine',NULL,'');</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
@@ -10613,7 +11280,7 @@
         <v>33</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>1096</v>
+        <v>986</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>503</v>
@@ -10626,26 +11293,28 @@
         <v>24</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>789</v>
+        <v>680</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>903</v>
+        <v>794</v>
       </c>
       <c r="P104" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="S104" s="2"/>
+        <v>1196</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>1197</v>
+      </c>
       <c r="T104" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U104" s="2"/>
       <c r="V104" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','48042646','Padilla Vasquez','Danitza Gisenia','2005-9-11','F','440027','932728811','',NULL,NULL,'Padilla Benites','Gustavo',NULL,'','Vasquez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','48042646','Padilla Vasquez','Danitza Gisenia','2005-9-11','F','440027','932728811','',NULL,NULL,'Padilla Benites','Gustavo',NULL,'','Vasquez Cosi','Yulissa',NULL,'');</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -10674,7 +11343,7 @@
         <v>33</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>1097</v>
+        <v>987</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>504</v>
@@ -10687,26 +11356,28 @@
         <v>24</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>790</v>
+        <v>681</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>904</v>
+        <v>795</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="S105" s="2"/>
+        <v>1198</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>1199</v>
+      </c>
       <c r="T105" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U105" s="2"/>
       <c r="V105" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','70396966','Padilla Vidarte','Maribel','2004-5-9','F','487864','915146561','',NULL,NULL,'Padilla Orbezo','Liberato Elisio',NULL,'','Vidarte','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','70396966','Padilla Vidarte','Maribel','2004-5-9','F','487864','915146561','',NULL,NULL,'Padilla Orbezo','Liberato Elisio',NULL,'','Vidarte Cabana','Rocio',NULL,'');</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
@@ -10735,7 +11406,7 @@
         <v>33</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>1098</v>
+        <v>988</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>505</v>
@@ -10748,26 +11419,28 @@
         <v>24</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>791</v>
+        <v>682</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>905</v>
+        <v>796</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="S106" s="2"/>
+        <v>1200</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>1201</v>
+      </c>
       <c r="T106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U106" s="2"/>
       <c r="V106" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','46856801','Palacios Aguilar','Teidy Ivan','2003-3-11','F','492916','968221664','',NULL,NULL,'Palacios Ramos','Lazaro',NULL,'','Aguilar','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','46856801','Palacios Aguilar','Teidy Ivan','2003-3-11','F','492916','968221664','',NULL,NULL,'Palacios Ramos','Lazaro',NULL,'','Aguilar Montes','Sharon',NULL,'');</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
@@ -10809,26 +11482,28 @@
         <v>24</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>792</v>
+        <v>683</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>906</v>
+        <v>797</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="S107" s="2"/>
+        <v>1202</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>1203</v>
+      </c>
       <c r="T107" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U107" s="2"/>
       <c r="V107" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','70397076','Palmer Vigil','Milton Eduardo','2006-2-9','F',NULL,'975626622','',NULL,NULL,'Palmer Retis','Gilberto',NULL,'','Vigil','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','70397076','Palmer Vigil','Milton Eduardo','2006-2-9','F',NULL,'975626622','',NULL,NULL,'Palmer Retis','Gilberto',NULL,'','Vigil Ojeda','Pierina',NULL,'');</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
@@ -10870,26 +11545,28 @@
         <v>24</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>793</v>
+        <v>684</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>907</v>
+        <v>798</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="S108" s="2"/>
+        <v>1204</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>1205</v>
+      </c>
       <c r="T108" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U108" s="2"/>
       <c r="V108" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','70070396','Paredes Torres','Karen Lucely','2007-3-7','F',NULL,'960477016','',NULL,NULL,'Paredes Maiz','Rosmel',NULL,'','Torres','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','70070396','Paredes Torres','Karen Lucely','2007-3-7','F',NULL,'960477016','',NULL,NULL,'Paredes Maiz','Rosmel',NULL,'','Torres Collazos','Antonina',NULL,'');</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
@@ -10931,26 +11608,28 @@
         <v>24</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>794</v>
+        <v>685</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>908</v>
+        <v>799</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="S109" s="2"/>
+        <v>1206</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>1207</v>
+      </c>
       <c r="T109" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U109" s="2"/>
       <c r="V109" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','47538478','Rafael Quispe','Lita','2003-3-21','F',NULL,'912494631','',NULL,NULL,'Rafael Espejo','Leonardo',NULL,'','Quispe','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','47538478','Rafael Quispe','Lita','2003-3-21','F',NULL,'912494631','',NULL,NULL,'Rafael Espejo','Leonardo',NULL,'','Quispe Lima','Martha',NULL,'');</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
@@ -10992,26 +11671,28 @@
         <v>24</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>795</v>
+        <v>686</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>909</v>
+        <v>800</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="S110" s="2"/>
+        <v>1208</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>1209</v>
+      </c>
       <c r="T110" s="2" t="s">
-        <v>1032</v>
+        <v>922</v>
       </c>
       <c r="U110" s="2"/>
       <c r="V110" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','73534041','Ramirez Cajahuaringa','Lleyzon Esmic','2004-5-21','F',NULL,'906383826','',NULL,NULL,'Ramirez Espinoza','Oscar',NULL,'','Cajahuaringa','','932895470','')</v>
+        <v>CALL pa_insertar_alumno('DNI','73534041','Ramirez Cajahuaringa','Lleyzon Esmic','2004-5-21','F',NULL,'906383826','',NULL,NULL,'Ramirez Espinoza','Oscar',NULL,'','Cajahuaringa Santillana','Alexandra','932895470','');</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
@@ -11053,26 +11734,28 @@
         <v>24</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>796</v>
+        <v>687</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>910</v>
+        <v>801</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="S111" s="2"/>
+        <v>1210</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>1211</v>
+      </c>
       <c r="T111" s="2" t="s">
-        <v>1033</v>
+        <v>923</v>
       </c>
       <c r="U111" s="2"/>
       <c r="V111" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','60647745','Ramirez Cruz','Mariela Brigitt','2004-9-25','F',NULL,'964909932','',NULL,NULL,'Ramirez Alvarado','Luciano',NULL,'','Cruz','','966306829','')</v>
+        <v>CALL pa_insertar_alumno('DNI','60647745','Ramirez Cruz','Mariela Brigitt','2004-9-25','F',NULL,'964909932','',NULL,NULL,'Ramirez Alvarado','Luciano',NULL,'','Cruz Cañazca','Solange','966306829','');</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
@@ -11114,7 +11797,7 @@
         <v>24</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>797</v>
+        <v>688</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>296</v>
@@ -11124,16 +11807,18 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="S112" s="2"/>
+        <v>1212</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>1213</v>
+      </c>
       <c r="T112" s="2" t="s">
-        <v>1034</v>
+        <v>924</v>
       </c>
       <c r="U112" s="2"/>
       <c r="V112" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','47817557','Ramirez Delgado','Jose Neiser','2004-5-11','M',NULL,'906871643','',NULL,NULL,'Ramirez Rubio','Elmer',NULL,'','Delgado','','955472585','')</v>
+        <v>CALL pa_insertar_alumno('DNI','47817557','Ramirez Delgado','Jose Neiser','2004-5-11','M',NULL,'906871643','',NULL,NULL,'Ramirez Rubio','Elmer',NULL,'','Delgado Del Carpio','Idalia','955472585','');</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
@@ -11175,26 +11860,28 @@
         <v>24</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>798</v>
+        <v>689</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>911</v>
+        <v>802</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="S113" s="2"/>
+        <v>1214</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>1215</v>
+      </c>
       <c r="T113" s="2" t="s">
-        <v>1035</v>
+        <v>925</v>
       </c>
       <c r="U113" s="2"/>
       <c r="V113" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','73660565','Risco Abad','Fernando Heinz','2003-10-12','M',NULL,'976829581','',NULL,NULL,'Risco Avila','Bernardino',NULL,'','Abad','','913251919','')</v>
+        <v>CALL pa_insertar_alumno('DNI','73660565','Risco Abad','Fernando Heinz','2003-10-12','M',NULL,'976829581','',NULL,NULL,'Risco Avila','Bernardino',NULL,'','Abad Solis','Carmen','913251919','');</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
@@ -11236,26 +11923,28 @@
         <v>24</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>799</v>
+        <v>690</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>912</v>
+        <v>803</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="S114" s="2"/>
+        <v>1216</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>1217</v>
+      </c>
       <c r="T114" s="2" t="s">
-        <v>1036</v>
+        <v>926</v>
       </c>
       <c r="U114" s="2"/>
       <c r="V114" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','70070446','Rivera Leo','Angelica Fabiana','2005-1-7','F',NULL,'979186858','',NULL,NULL,'Rivera Herrera','Jefferson',NULL,'','Leo','','973591530','')</v>
+        <v>CALL pa_insertar_alumno('DNI','70070446','Rivera Leo','Angelica Fabiana','2005-1-7','F',NULL,'979186858','',NULL,NULL,'Rivera Herrera','Jefferson',NULL,'','Leo Mojo','Candy','973591530','');</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
@@ -11297,26 +11986,28 @@
         <v>24</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>800</v>
+        <v>691</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>913</v>
+        <v>804</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q115" s="2"/>
       <c r="R115" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="S115" s="2"/>
+        <v>1218</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>1219</v>
+      </c>
       <c r="T115" s="2" t="s">
-        <v>1037</v>
+        <v>927</v>
       </c>
       <c r="U115" s="2"/>
       <c r="V115" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','77036757','Rodas Aguilar','Clin Brandoli','2007-2-3','M',NULL,'945233135','',NULL,NULL,'Rodas Vilela','Yover',NULL,'','Aguilar','','941267001','')</v>
+        <v>CALL pa_insertar_alumno('DNI','77036757','Rodas Aguilar','Clin Brandoli','2007-2-3','M',NULL,'945233135','',NULL,NULL,'Rodas Vilela','Yover',NULL,'','Aguilar Pauca','Karla Luz','941267001','');</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
@@ -11358,26 +12049,28 @@
         <v>24</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>801</v>
+        <v>692</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>914</v>
+        <v>805</v>
       </c>
       <c r="P116" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="S116" s="2"/>
+        <v>1220</v>
+      </c>
+      <c r="S116" s="2" t="s">
+        <v>1221</v>
+      </c>
       <c r="T116" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U116" s="2"/>
       <c r="V116" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','74311928','Rivera Vicente','Junior Ivan','2006-7-7','M',NULL,'996981018','',NULL,NULL,'Rivera Navidad','Keiner',NULL,'','Vicente','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','74311928','Rivera Vicente','Junior Ivan','2006-7-7','M',NULL,'996981018','',NULL,NULL,'Rivera Navidad','Keiner',NULL,'','Vicente Teves','Rosa Leydi',NULL,'');</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
@@ -11419,26 +12112,28 @@
         <v>24</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>802</v>
+        <v>693</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>915</v>
+        <v>806</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="S117" s="2"/>
+        <v>1222</v>
+      </c>
+      <c r="S117" s="2" t="s">
+        <v>1223</v>
+      </c>
       <c r="T117" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U117" s="2"/>
       <c r="V117" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','73534140','Saavedra Pinedo','Luis Alberto','2003-9-24','M',NULL,'901940021','',NULL,NULL,'Saavedra Arias','Caleb',NULL,'','Pinedo','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','73534140','Saavedra Pinedo','Luis Alberto','2003-9-24','M',NULL,'901940021','',NULL,NULL,'Saavedra Arias','Caleb',NULL,'','Pinedo Bautista','Maria',NULL,'');</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
@@ -11480,26 +12175,28 @@
         <v>24</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>803</v>
+        <v>694</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>916</v>
+        <v>807</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="S118" s="2"/>
+        <v>1224</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>1225</v>
+      </c>
       <c r="T118" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U118" s="2"/>
       <c r="V118" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','73315386','Salazar Cardozo','Yana Yarabeli','2007-7-4','F',NULL,'913959213','',NULL,NULL,'Salazar Azucena','Raymundo',NULL,'','Cardozo','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','73315386','Salazar Cardozo','Yana Yarabeli','2007-7-4','F',NULL,'913959213','',NULL,NULL,'Salazar Azucena','Raymundo',NULL,'','Cardozo Alarcon','Yovani',NULL,'');</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
@@ -11541,26 +12238,28 @@
         <v>24</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>804</v>
+        <v>695</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>917</v>
+        <v>808</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>983</v>
+        <v>874</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="S119" s="2"/>
+        <v>1226</v>
+      </c>
+      <c r="S119" s="2" t="s">
+        <v>1229</v>
+      </c>
       <c r="T119" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U119" s="2"/>
       <c r="V119" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','74366802','Sanchez Hoyos','Yenifer Suiguey','2005-4-8','F',NULL,'914610313','',NULL,NULL,'Sanchez Balvin','Heber','901785068','','Hoyos','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','74366802','Sanchez Hoyos','Yenifer Suiguey','2005-4-8','F',NULL,'914610313','',NULL,NULL,'Sanchez Balvin','Heber','901785068','','Hoyos Arevalo','Thalia',NULL,'');</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
@@ -11589,7 +12288,7 @@
         <v>33</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>1099</v>
+        <v>989</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>519</v>
@@ -11602,26 +12301,28 @@
         <v>24</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>805</v>
+        <v>696</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>918</v>
+        <v>809</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>984</v>
+        <v>875</v>
       </c>
       <c r="Q120" s="2"/>
       <c r="R120" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="S120" s="2"/>
+        <v>1227</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>1230</v>
+      </c>
       <c r="T120" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U120" s="2"/>
       <c r="V120" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','43405279','Sanchez Rivera','Lleny Rocio','2004-7-15','F','438001','954507558','',NULL,NULL,'Sanchez Alarcon','Richard ','912804928','','Rivera','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','43405279','Sanchez Rivera','Lleny Rocio','2004-7-15','F','438001','954507558','',NULL,NULL,'Sanchez Alarcon','Richard ','912804928','','Rivera Contreras','Betty',NULL,'');</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
@@ -11650,7 +12351,7 @@
         <v>33</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>1100</v>
+        <v>990</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>520</v>
@@ -11663,26 +12364,28 @@
         <v>24</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>806</v>
+        <v>697</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>919</v>
+        <v>810</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>985</v>
+        <v>876</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="S121" s="2"/>
+        <v>1228</v>
+      </c>
+      <c r="S121" s="2" t="s">
+        <v>1231</v>
+      </c>
       <c r="T121" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U121" s="2"/>
       <c r="V121" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','47426937','Tapia Martinez','Ana Maria','2005-10-23','F','411783','930729110','',NULL,NULL,'Tapia Aquino','Juan Felix','903899564','','Martinez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','47426937','Tapia Martinez','Ana Maria','2005-10-23','F','411783','930729110','',NULL,NULL,'Tapia Aquino','Juan Felix','903899564','','Martinez Garcia','Yocani Rene',NULL,'');</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
@@ -11711,7 +12414,7 @@
         <v>23</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>1101</v>
+        <v>991</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>521</v>
@@ -11724,26 +12427,28 @@
         <v>24</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>807</v>
+        <v>698</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>920</v>
+        <v>811</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>986</v>
+        <v>877</v>
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="S122" s="2"/>
+        <v>1232</v>
+      </c>
+      <c r="S122" s="2" t="s">
+        <v>1235</v>
+      </c>
       <c r="T122" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U122" s="2"/>
       <c r="V122" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','45748228','Tantalean Marin','Neyser','2007-1-11','M','494665','910248407','',NULL,NULL,'Tantalean Vizcarra','Edwin','917362552','','Marin','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','45748228','Tantalean Marin','Neyser','2007-1-11','M','494665','910248407','',NULL,NULL,'Tantalean Vizcarra','Edwin','917362552','','Marin Castro','Deysi',NULL,'');</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
@@ -11772,7 +12477,7 @@
         <v>33</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>1102</v>
+        <v>992</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>522</v>
@@ -11785,26 +12490,28 @@
         <v>24</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>808</v>
+        <v>699</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>921</v>
+        <v>812</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>987</v>
+        <v>878</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="S123" s="2"/>
+        <v>1233</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>1236</v>
+      </c>
       <c r="T123" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U123" s="2"/>
       <c r="V123" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','46921716','Tarrillo Flores','Gisela','2003-12-20','F','429354','914940992','',NULL,NULL,'Tarrillo Ruiz','Rolando','953196697','','Flores','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','46921716','Tarrillo Flores','Gisela','2003-12-20','F','429354','914940992','',NULL,NULL,'Tarrillo Ruiz','Rolando','953196697','','Flores Fernandez','Rosmery',NULL,'');</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
@@ -11833,7 +12540,7 @@
         <v>33</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>1103</v>
+        <v>993</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>523</v>
@@ -11846,26 +12553,28 @@
         <v>24</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>809</v>
+        <v>700</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>875</v>
+        <v>766</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>988</v>
+        <v>879</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="S124" s="2"/>
+        <v>1234</v>
+      </c>
+      <c r="S124" s="2" t="s">
+        <v>1237</v>
+      </c>
       <c r="T124" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U124" s="2"/>
       <c r="V124" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','33668958','Torres Saavedra','Maria Noemi','2007-7-1','F','484813','945857349','',NULL,NULL,'Torres Rosales','Alejandro','960884905','','Saavedra','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','33668958','Torres Saavedra','Maria Noemi','2007-7-1','F','484813','945857349','',NULL,NULL,'Torres Rosales','Alejandro','960884905','','Saavedra Jeri','Mayra ',NULL,'');</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
@@ -11894,7 +12603,7 @@
         <v>33</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>1104</v>
+        <v>994</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>524</v>
@@ -11907,26 +12616,28 @@
         <v>24</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>810</v>
+        <v>701</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>922</v>
+        <v>813</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>989</v>
+        <v>880</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="S125" s="2"/>
+        <v>1238</v>
+      </c>
+      <c r="S125" s="2" t="s">
+        <v>1239</v>
+      </c>
       <c r="T125" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U125" s="2"/>
       <c r="V125" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','43000571','Torres Nuñez','Berzabeth Veronica','2003-5-2','F','484936','968143633','',NULL,NULL,'Torres Regalado','Pedro Alex','933743393','','Nuñez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','43000571','Torres Nuñez','Berzabeth Veronica','2003-5-2','F','484936','968143633','',NULL,NULL,'Torres Regalado','Pedro Alex','933743393','','Nuñez Huaman','Gina Marissa',NULL,'');</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
@@ -11955,7 +12666,7 @@
         <v>33</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>1105</v>
+        <v>995</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>525</v>
@@ -11968,26 +12679,28 @@
         <v>24</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>716</v>
+        <v>607</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>923</v>
+        <v>814</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>990</v>
+        <v>881</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="S126" s="2"/>
+        <v>1240</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="T126" s="2" t="s">
-        <v>1038</v>
+        <v>928</v>
       </c>
       <c r="U126" s="2"/>
       <c r="V126" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','45334361','Torres Tenorio','Maria Mily','2005-4-9','F','454159','921531013','',NULL,NULL,'Torres Perez','Victor Ismael','954100317','','Tenorio','','938566441','')</v>
+        <v>CALL pa_insertar_alumno('DNI','45334361','Torres Tenorio','Maria Mily','2005-4-9','F','454159','921531013','',NULL,NULL,'Torres Perez','Victor Ismael','954100317','','Tenorio Hinostroza','Mayra','938566441','');</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
@@ -12016,7 +12729,7 @@
         <v>33</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>1106</v>
+        <v>996</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>526</v>
@@ -12029,26 +12742,28 @@
         <v>24</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>717</v>
+        <v>608</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>924</v>
+        <v>815</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>991</v>
+        <v>882</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="S127" s="2"/>
+        <v>1241</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="T127" s="2" t="s">
-        <v>1039</v>
+        <v>929</v>
       </c>
       <c r="U127" s="2"/>
       <c r="V127" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','75719269','Uriol Rojas','Karina Liseth','2003-8-7','F','417894','961930951','',NULL,NULL,'Uriol Guevara','Feliciano','946396077','','Rojas','','934057150','')</v>
+        <v>CALL pa_insertar_alumno('DNI','75719269','Uriol Rojas','Karina Liseth','2003-8-7','F','417894','961930951','',NULL,NULL,'Uriol Guevara','Feliciano','946396077','','Rojas Felices','Maribel','934057150','');</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
@@ -12077,7 +12792,7 @@
         <v>33</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>1107</v>
+        <v>997</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>527</v>
@@ -12090,26 +12805,28 @@
         <v>24</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>718</v>
+        <v>609</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>925</v>
+        <v>816</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>992</v>
+        <v>883</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="S128" s="2"/>
+        <v>1242</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>1243</v>
+      </c>
       <c r="T128" s="2" t="s">
-        <v>1040</v>
+        <v>930</v>
       </c>
       <c r="U128" s="2"/>
       <c r="V128" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','76371246','Uriarte Ramos','Rosaura','2005-2-25','F','491381','981142914','',NULL,NULL,'Uriarte Cayco','Cesar','962675788','','Ramos','','930579147','')</v>
+        <v>CALL pa_insertar_alumno('DNI','76371246','Uriarte Ramos','Rosaura','2005-2-25','F','491381','981142914','',NULL,NULL,'Uriarte Cayco','Cesar','962675788','','Ramos Mauricio ','Elizabeth','930579147','');</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.25">
@@ -12138,7 +12855,7 @@
         <v>33</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>1108</v>
+        <v>998</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>528</v>
@@ -12151,26 +12868,28 @@
         <v>24</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>719</v>
+        <v>610</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>926</v>
+        <v>817</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>993</v>
+        <v>884</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="S129" s="2"/>
+        <v>1244</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>1245</v>
+      </c>
       <c r="T129" s="2" t="s">
-        <v>1041</v>
+        <v>931</v>
       </c>
       <c r="U129" s="2"/>
       <c r="V129" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','75392370','Vargas Linares','Yennifer Lisseth','2004-11-13','F','449483','994239213','',NULL,NULL,'Vargas Cebrian','France Edgar','903506576','','Linares','','902475890','')</v>
+        <v>CALL pa_insertar_alumno('DNI','75392370','Vargas Linares','Yennifer Lisseth','2004-11-13','F','449483','994239213','',NULL,NULL,'Vargas Cebrian','France Edgar','903506576','','Linares Montes','Antonia','902475890','');</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.25">
@@ -12199,7 +12918,7 @@
         <v>33</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>1109</v>
+        <v>999</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>529</v>
@@ -12212,26 +12931,28 @@
         <v>24</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>720</v>
+        <v>611</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>927</v>
+        <v>818</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="S130" s="2"/>
+        <v>1246</v>
+      </c>
+      <c r="S130" s="2" t="s">
+        <v>1247</v>
+      </c>
       <c r="T130" s="2" t="s">
-        <v>1042</v>
+        <v>932</v>
       </c>
       <c r="U130" s="2"/>
       <c r="V130" t="str">
         <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','74758099','Valderrama Ruiz','Maryori Steissy','2007-4-27','F','430620','976690547','',NULL,NULL,'Valderrama Nieto','Iván',NULL,'','Ruiz','','932019461','')</v>
+        <v>CALL pa_insertar_alumno('DNI','74758099','Valderrama Ruiz','Maryori Steissy','2007-4-27','F','430620','976690547','',NULL,NULL,'Valderrama Nieto','Iván',NULL,'','Ruiz Carbajal','Zuleika','932019461','');</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
@@ -12273,26 +12994,28 @@
         <v>24</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>721</v>
+        <v>612</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>928</v>
+        <v>819</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="S131" s="2"/>
+        <v>1248</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>1249</v>
+      </c>
       <c r="T131" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U131" s="2"/>
       <c r="V131" t="str">
-        <f t="shared" si="1"/>
-        <v>CALL pa_insertar_alumno('DNI','73701815','Vásquez Guerrero','Shirley','2005-3-24','F',NULL,'940586893','',NULL,NULL,'Vásquez Esteban','Valentin',NULL,'','Guerrero','',NULL,'')</v>
+        <f t="shared" ref="V131:V144" si="2">CONCATENATE("CALL pa_insertar_alumno('",A131,"','",B131,"','",C131,"','",D131,"','",E131,"-",F131,"-",G131,"','",H131,"',",IF(I131="NULL","NULL",CONCATENATE("'",I131,"'")),",'",J131,"','",K131,"',",IF(L131="NULL","NULL",CONCATENATE("'",L131,"'")),",",IF(M131="NULL","NULL",CONCATENATE("'",M131,"'")),",'",N131,"','",O131,"',",IF(P131="NULL","NULL",CONCATENATE("'",P131,"'")),",",IF(Q131="NULL","NULL",CONCATENATE("'",Q131,"'")),",'",R131,"','",S131,"',",IF(T131="NULL","NULL",CONCATENATE("'",T131,"'")),",",IF(U131="NULL","NULL",CONCATENATE("'",U131,"'")),");")</f>
+        <v>CALL pa_insertar_alumno('DNI','73701815','Vásquez Guerrero','Shirley','2005-3-24','F',NULL,'940586893','',NULL,NULL,'Vásquez Esteban','Valentin',NULL,'','Guerrero Morales','Kendra',NULL,'');</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.25">
@@ -12334,7 +13057,7 @@
         <v>24</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>722</v>
+        <v>613</v>
       </c>
       <c r="O132" s="2" t="s">
         <v>398</v>
@@ -12344,16 +13067,18 @@
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="S132" s="2"/>
+        <v>1250</v>
+      </c>
+      <c r="S132" s="2" t="s">
+        <v>1251</v>
+      </c>
       <c r="T132" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U132" s="2"/>
       <c r="V132" t="str">
-        <f t="shared" ref="V132:V144" si="2">CONCATENATE("CALL pa_insertar_alumno('",A132,"','",B132,"','",C132,"','",D132,"','",E132,"-",F132,"-",G132,"','",H132,"',",IF(I132="NULL","NULL",CONCATENATE("'",I132,"'")),",'",J132,"','",K132,"',",IF(L132="NULL","NULL",CONCATENATE("'",L132,"'")),",",IF(M132="NULL","NULL",CONCATENATE("'",M132,"'")),",'",N132,"','",O132,"',",IF(P132="NULL","NULL",CONCATENATE("'",P132,"'")),",",IF(Q132="NULL","NULL",CONCATENATE("'",Q132,"'")),",'",R132,"','",S132,"',",IF(T132="NULL","NULL",CONCATENATE("'",T132,"'")),",",IF(U132="NULL","NULL",CONCATENATE("'",U132,"'")),")")</f>
-        <v>CALL pa_insertar_alumno('DNI','73317145','Vásquez Guerrero','Keyla','2004-4-23','F',NULL,'927571884','',NULL,NULL,'Vásquez Celadita','Marco Antonio',NULL,'','Guerrero','',NULL,'')</v>
+        <f t="shared" si="2"/>
+        <v>CALL pa_insertar_alumno('DNI','73317145','Vásquez Guerrero','Keyla','2004-4-23','F',NULL,'927571884','',NULL,NULL,'Vásquez Celadita','Marco Antonio',NULL,'','Guerrero Bautista','Manuela',NULL,'');</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.25">
@@ -12395,26 +13120,28 @@
         <v>24</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>723</v>
+        <v>614</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>929</v>
+        <v>820</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S133" s="2"/>
+        <v>1252</v>
+      </c>
+      <c r="S133" s="2" t="s">
+        <v>1253</v>
+      </c>
       <c r="T133" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U133" s="2"/>
       <c r="V133" t="str">
         <f t="shared" si="2"/>
-        <v>CALL pa_insertar_alumno('DNI','33578773','Vasquez Mayra','Sonia Magaly','2006-6-18','F',NULL,'938166337','',NULL,NULL,'Vasquez Celestino','Alejandrino',NULL,'','Mayra','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','33578773','Vasquez Mayra','Sonia Magaly','2006-6-18','F',NULL,'938166337','',NULL,NULL,'Vasquez Celestino','Alejandrino',NULL,'','Mayra Rimachi','Gloria',NULL,'');</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
@@ -12456,26 +13183,28 @@
         <v>24</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>724</v>
+        <v>615</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>930</v>
+        <v>821</v>
       </c>
       <c r="P134" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="S134" s="2"/>
+        <v>1254</v>
+      </c>
+      <c r="S134" s="2" t="s">
+        <v>1255</v>
+      </c>
       <c r="T134" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U134" s="2"/>
       <c r="V134" t="str">
         <f t="shared" si="2"/>
-        <v>CALL pa_insertar_alumno('DNI','16785041','Vega Davila','William Enrique','2007-7-28','M',NULL,'912370350','',NULL,NULL,'Vega Hurtado','Abdon',NULL,'','Davila','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','16785041','Vega Davila','William Enrique','2007-7-28','M',NULL,'912370350','',NULL,NULL,'Vega Hurtado','Abdon',NULL,'','Davila Sanchez','Loida',NULL,'');</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
@@ -12517,26 +13246,28 @@
         <v>24</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>725</v>
+        <v>616</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>931</v>
+        <v>822</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q135" s="2"/>
       <c r="R135" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="S135" s="2"/>
+        <v>1256</v>
+      </c>
+      <c r="S135" s="2" t="s">
+        <v>1257</v>
+      </c>
       <c r="T135" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U135" s="2"/>
       <c r="V135" t="str">
         <f t="shared" si="2"/>
-        <v>CALL pa_insertar_alumno('DNI','70560329','Vega Fernandez','Ramcin Anibal','2004-11-9','M',NULL,'900511680','',NULL,NULL,'Vega Cabello','Aaron Misael',NULL,'','Fernandez','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','70560329','Vega Fernandez','Ramcin Anibal','2004-11-9','M',NULL,'900511680','',NULL,NULL,'Vega Cabello','Aaron Misael',NULL,'','Fernandez Vargas','Catherin',NULL,'');</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.25">
@@ -12578,26 +13309,28 @@
         <v>24</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>726</v>
+        <v>617</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>819</v>
+        <v>710</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="S136" s="2"/>
+        <v>1258</v>
+      </c>
+      <c r="S136" s="2" t="s">
+        <v>1259</v>
+      </c>
       <c r="T136" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U136" s="2"/>
       <c r="V136" t="str">
         <f t="shared" si="2"/>
-        <v>CALL pa_insertar_alumno('DNI','45444834','Vega Terrones','Esteban','2006-3-26','M',NULL,'986833092','',NULL,NULL,'Vega Celis','Miguel Angel',NULL,'','Terrones','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','45444834','Vega Terrones','Esteban','2006-3-26','M',NULL,'986833092','',NULL,NULL,'Vega Celis','Miguel Angel',NULL,'','Terrones Gomez','Erika',NULL,'');</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.25">
@@ -12639,26 +13372,28 @@
         <v>24</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>727</v>
+        <v>618</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>932</v>
+        <v>823</v>
       </c>
       <c r="P137" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q137" s="2"/>
       <c r="R137" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="S137" s="2"/>
+        <v>1260</v>
+      </c>
+      <c r="S137" s="2" t="s">
+        <v>1261</v>
+      </c>
       <c r="T137" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U137" s="2"/>
       <c r="V137" t="str">
         <f t="shared" si="2"/>
-        <v>CALL pa_insertar_alumno('DNI','44763486','Vilchez Castro','Raquel','2006-10-26','M',NULL,'995116046','',NULL,NULL,'Vilchez Centuno','Jhon',NULL,'','Castro','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','44763486','Vilchez Castro','Raquel','2006-10-26','M',NULL,'995116046','',NULL,NULL,'Vilchez Centuno','Jhon',NULL,'','Castro Gamboa','Silvia Sonia',NULL,'');</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.25">
@@ -12700,7 +13435,7 @@
         <v>24</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>728</v>
+        <v>619</v>
       </c>
       <c r="O138" s="2" t="s">
         <v>54</v>
@@ -12710,16 +13445,18 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="S138" s="2"/>
+        <v>1262</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>1199</v>
+      </c>
       <c r="T138" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U138" s="2"/>
       <c r="V138" t="str">
         <f t="shared" si="2"/>
-        <v>CALL pa_insertar_alumno('DNI','41650274','Villalobos Bellodas','Carlos Edison','2003-6-7','M',NULL,'970115570','',NULL,NULL,'Villalobos Vargas','David',NULL,'','Bellodas','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','41650274','Villalobos Bellodas','Carlos Edison','2003-6-7','M',NULL,'970115570','',NULL,NULL,'Villalobos Vargas','David',NULL,'','Bellodas De La Cruz','Rocio',NULL,'');</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.25">
@@ -12761,26 +13498,28 @@
         <v>24</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>729</v>
+        <v>620</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>933</v>
+        <v>824</v>
       </c>
       <c r="P139" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="S139" s="2"/>
+        <v>1263</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>1264</v>
+      </c>
       <c r="T139" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U139" s="2"/>
       <c r="V139" t="str">
         <f t="shared" si="2"/>
-        <v>CALL pa_insertar_alumno('DNI','75263049','Villalobos Herrera','Arbel','2006-5-3','M',NULL,'951178856','',NULL,NULL,'Villalobos Jaramillo','Oliver Milton',NULL,'','Herrera','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','75263049','Villalobos Herrera','Arbel','2006-5-3','M',NULL,'951178856','',NULL,NULL,'Villalobos Jaramillo','Oliver Milton',NULL,'','Herrera Leon','Maribel Rocio',NULL,'');</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.25">
@@ -12822,26 +13561,28 @@
         <v>24</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>730</v>
+        <v>621</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>889</v>
+        <v>780</v>
       </c>
       <c r="P140" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q140" s="2"/>
       <c r="R140" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="S140" s="2"/>
+        <v>1265</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>1266</v>
+      </c>
       <c r="T140" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U140" s="2"/>
       <c r="V140" t="str">
         <f t="shared" si="2"/>
-        <v>CALL pa_insertar_alumno('DNI','74421368','Zamora Diaz','Joel','2007-12-12','M',NULL,'984406561','',NULL,NULL,'Zamora Chavez','Carlos Alberto',NULL,'','Diaz','',NULL,'')</v>
+        <v>CALL pa_insertar_alumno('DNI','74421368','Zamora Diaz','Joel','2007-12-12','M',NULL,'984406561','',NULL,NULL,'Zamora Chavez','Carlos Alberto',NULL,'','Diaz Montoya','Nancy Elizabth',NULL,'');</v>
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.25">
@@ -12883,26 +13624,28 @@
         <v>24</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>731</v>
+        <v>622</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>934</v>
+        <v>825</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="S141" s="2"/>
+        <v>1267</v>
+      </c>
+      <c r="S141" s="2" t="s">
+        <v>1268</v>
+      </c>
       <c r="T141" s="2" t="s">
-        <v>1043</v>
+        <v>933</v>
       </c>
       <c r="U141" s="2"/>
       <c r="V141" t="str">
         <f t="shared" si="2"/>
-        <v>CALL pa_insertar_alumno('DNI','48193928','Zamora Perez','Elias','2005-3-29','M',NULL,'988903562','',NULL,NULL,'Zamora Solis','Wildo Wilfredo',NULL,'','Perez','','910852396','')</v>
+        <v>CALL pa_insertar_alumno('DNI','48193928','Zamora Perez','Elias','2005-3-29','M',NULL,'988903562','',NULL,NULL,'Zamora Solis','Wildo Wilfredo',NULL,'','Perez Jimenez','Zoraida','910852396','');</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.25">
@@ -12944,26 +13687,28 @@
         <v>24</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>732</v>
+        <v>623</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>935</v>
+        <v>826</v>
       </c>
       <c r="P142" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="S142" s="2"/>
+        <v>1269</v>
+      </c>
+      <c r="S142" s="2" t="s">
+        <v>1270</v>
+      </c>
       <c r="T142" s="2" t="s">
-        <v>1044</v>
+        <v>934</v>
       </c>
       <c r="U142" s="2"/>
       <c r="V142" t="str">
         <f t="shared" si="2"/>
-        <v>CALL pa_insertar_alumno('DNI','72914649','Zegarra Olano','Sheyla Stefany','2003-2-24','F',NULL,'952477972','',NULL,NULL,'Zegarra Chogas','Roger Abel',NULL,'','Olano','','957631005','')</v>
+        <v>CALL pa_insertar_alumno('DNI','72914649','Zegarra Olano','Sheyla Stefany','2003-2-24','F',NULL,'952477972','',NULL,NULL,'Zegarra Chogas','Roger Abel',NULL,'','Olano Medina','Leyda Madeli','957631005','');</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.25">
@@ -13005,26 +13750,28 @@
         <v>24</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>733</v>
+        <v>624</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>936</v>
+        <v>827</v>
       </c>
       <c r="P143" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="S143" s="2"/>
+        <v>1271</v>
+      </c>
+      <c r="S143" s="2" t="s">
+        <v>1272</v>
+      </c>
       <c r="T143" s="2" t="s">
-        <v>1045</v>
+        <v>935</v>
       </c>
       <c r="U143" s="2"/>
       <c r="V143" t="str">
         <f t="shared" si="2"/>
-        <v>CALL pa_insertar_alumno('DNI','47406897','Zelada Medina','Jusbelly Jamali','2004-4-14','F',NULL,'912335923','',NULL,NULL,'Zelada Chinguel','Jhon Willian',NULL,'','Medina','','931936960','')</v>
+        <v>CALL pa_insertar_alumno('DNI','47406897','Zelada Medina','Jusbelly Jamali','2004-4-14','F',NULL,'912335923','',NULL,NULL,'Zelada Chinguel','Jhon Willian',NULL,'','Medina Galan','Lisset Vanesa','931936960','');</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
@@ -13053,7 +13800,7 @@
         <v>23</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>1110</v>
+        <v>1000</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>543</v>
@@ -13066,456 +13813,458 @@
         <v>24</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>682</v>
+        <v>573</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>937</v>
+        <v>828</v>
       </c>
       <c r="P144" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="S144" s="2"/>
+        <v>1083</v>
+      </c>
+      <c r="S144" s="2" t="s">
+        <v>1273</v>
+      </c>
       <c r="T144" s="2" t="s">
-        <v>1046</v>
+        <v>936</v>
       </c>
       <c r="U144" s="2"/>
       <c r="V144" t="str">
         <f t="shared" si="2"/>
-        <v>CALL pa_insertar_alumno('DNI','76831964','Zuta Reyna','Marco Antonio','2007-3-28','M','472681','942086226','',NULL,NULL,'Zuta Alanya','Oscar Alfredo',NULL,'','Reyna','','945089569','')</v>
+        <v>CALL pa_insertar_alumno('DNI','76831964','Zuta Reyna','Marco Antonio','2007-3-28','M','472681','942086226','',NULL,NULL,'Zuta Alanya','Oscar Alfredo',NULL,'','Reyna Perez','Laura Raquel','945089569','');</v>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G146" s="9"/>
+      <c r="G146" s="6"/>
     </row>
     <row r="147" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G147" s="9"/>
+      <c r="G147" s="6"/>
     </row>
     <row r="148" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G148" s="9"/>
+      <c r="G148" s="6"/>
     </row>
     <row r="149" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G149" s="9"/>
+      <c r="G149" s="6"/>
     </row>
     <row r="150" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G150" s="9"/>
+      <c r="G150" s="6"/>
     </row>
     <row r="151" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G151" s="9"/>
+      <c r="G151" s="6"/>
     </row>
     <row r="152" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G152" s="9"/>
+      <c r="G152" s="6"/>
     </row>
     <row r="153" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G153" s="9"/>
+      <c r="G153" s="6"/>
     </row>
     <row r="154" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G154" s="9"/>
+      <c r="G154" s="6"/>
     </row>
     <row r="155" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G155" s="9"/>
+      <c r="G155" s="6"/>
     </row>
     <row r="156" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G156" s="9"/>
+      <c r="G156" s="6"/>
     </row>
     <row r="157" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G157" s="9"/>
+      <c r="G157" s="6"/>
     </row>
     <row r="158" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G158" s="9"/>
+      <c r="G158" s="6"/>
     </row>
     <row r="159" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G159" s="9"/>
+      <c r="G159" s="6"/>
     </row>
     <row r="160" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G160" s="9"/>
+      <c r="G160" s="6"/>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G161" s="9"/>
+      <c r="G161" s="6"/>
     </row>
     <row r="162" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G162" s="9"/>
+      <c r="G162" s="6"/>
     </row>
     <row r="163" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G163" s="9"/>
+      <c r="G163" s="6"/>
     </row>
     <row r="164" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G164" s="9"/>
+      <c r="G164" s="6"/>
     </row>
     <row r="165" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G165" s="9"/>
+      <c r="G165" s="6"/>
     </row>
     <row r="166" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G166" s="9"/>
+      <c r="G166" s="6"/>
     </row>
     <row r="167" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G167" s="9"/>
+      <c r="G167" s="6"/>
     </row>
     <row r="168" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G168" s="9"/>
+      <c r="G168" s="6"/>
     </row>
     <row r="169" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G169" s="9"/>
+      <c r="G169" s="6"/>
     </row>
     <row r="170" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G170" s="9"/>
+      <c r="G170" s="6"/>
     </row>
     <row r="171" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G171" s="9"/>
+      <c r="G171" s="6"/>
     </row>
     <row r="172" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G172" s="9"/>
+      <c r="G172" s="6"/>
     </row>
     <row r="173" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G173" s="9"/>
+      <c r="G173" s="6"/>
     </row>
     <row r="174" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G174" s="9"/>
+      <c r="G174" s="6"/>
     </row>
     <row r="175" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G175" s="9"/>
+      <c r="G175" s="6"/>
     </row>
     <row r="176" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G176" s="9"/>
+      <c r="G176" s="6"/>
     </row>
     <row r="177" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G177" s="9"/>
+      <c r="G177" s="6"/>
     </row>
     <row r="178" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G178" s="9"/>
+      <c r="G178" s="6"/>
     </row>
     <row r="179" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G179" s="9"/>
+      <c r="G179" s="6"/>
     </row>
     <row r="180" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G180" s="9"/>
+      <c r="G180" s="6"/>
     </row>
     <row r="181" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G181" s="9"/>
+      <c r="G181" s="6"/>
     </row>
     <row r="182" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G182" s="9"/>
+      <c r="G182" s="6"/>
     </row>
     <row r="183" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G183" s="9"/>
+      <c r="G183" s="6"/>
     </row>
     <row r="184" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G184" s="9"/>
+      <c r="G184" s="6"/>
     </row>
     <row r="185" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G185" s="9"/>
+      <c r="G185" s="6"/>
     </row>
     <row r="186" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G186" s="9"/>
+      <c r="G186" s="6"/>
     </row>
     <row r="187" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G187" s="9"/>
+      <c r="G187" s="6"/>
     </row>
     <row r="188" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G188" s="9"/>
+      <c r="G188" s="6"/>
     </row>
     <row r="189" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G189" s="9"/>
+      <c r="G189" s="6"/>
     </row>
     <row r="190" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G190" s="9"/>
+      <c r="G190" s="6"/>
     </row>
     <row r="191" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G191" s="9"/>
+      <c r="G191" s="6"/>
     </row>
     <row r="192" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G192" s="9"/>
+      <c r="G192" s="6"/>
     </row>
     <row r="193" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G193" s="9"/>
+      <c r="G193" s="6"/>
     </row>
     <row r="194" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G194" s="9"/>
+      <c r="G194" s="6"/>
     </row>
     <row r="195" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G195" s="9"/>
+      <c r="G195" s="6"/>
     </row>
     <row r="196" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G196" s="9"/>
+      <c r="G196" s="6"/>
     </row>
     <row r="197" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G197" s="9"/>
+      <c r="G197" s="6"/>
     </row>
     <row r="198" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G198" s="9"/>
+      <c r="G198" s="6"/>
     </row>
     <row r="199" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G199" s="9"/>
+      <c r="G199" s="6"/>
     </row>
     <row r="200" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G200" s="9"/>
+      <c r="G200" s="6"/>
     </row>
     <row r="201" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G201" s="9"/>
+      <c r="G201" s="6"/>
     </row>
     <row r="202" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G202" s="9"/>
+      <c r="G202" s="6"/>
     </row>
     <row r="203" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G203" s="9"/>
+      <c r="G203" s="6"/>
     </row>
     <row r="204" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G204" s="9"/>
+      <c r="G204" s="6"/>
     </row>
     <row r="205" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G205" s="9"/>
+      <c r="G205" s="6"/>
     </row>
     <row r="206" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G206" s="9"/>
+      <c r="G206" s="6"/>
     </row>
     <row r="207" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G207" s="9"/>
+      <c r="G207" s="6"/>
     </row>
     <row r="208" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G208" s="9"/>
+      <c r="G208" s="6"/>
     </row>
     <row r="209" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G209" s="9"/>
+      <c r="G209" s="6"/>
     </row>
     <row r="210" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G210" s="9"/>
+      <c r="G210" s="6"/>
     </row>
     <row r="211" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G211" s="9"/>
+      <c r="G211" s="6"/>
     </row>
     <row r="212" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G212" s="9"/>
+      <c r="G212" s="6"/>
     </row>
     <row r="213" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G213" s="9"/>
+      <c r="G213" s="6"/>
     </row>
     <row r="214" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G214" s="9"/>
+      <c r="G214" s="6"/>
     </row>
     <row r="215" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G215" s="9"/>
+      <c r="G215" s="6"/>
     </row>
     <row r="216" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G216" s="9"/>
+      <c r="G216" s="6"/>
     </row>
     <row r="217" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G217" s="9"/>
+      <c r="G217" s="6"/>
     </row>
     <row r="218" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G218" s="9"/>
+      <c r="G218" s="6"/>
     </row>
     <row r="219" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G219" s="9"/>
+      <c r="G219" s="6"/>
     </row>
     <row r="220" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G220" s="9"/>
+      <c r="G220" s="6"/>
     </row>
     <row r="221" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G221" s="9"/>
+      <c r="G221" s="6"/>
     </row>
     <row r="222" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G222" s="9"/>
+      <c r="G222" s="6"/>
     </row>
     <row r="223" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G223" s="9"/>
+      <c r="G223" s="6"/>
     </row>
     <row r="224" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G224" s="9"/>
+      <c r="G224" s="6"/>
     </row>
     <row r="225" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G225" s="9"/>
+      <c r="G225" s="6"/>
     </row>
     <row r="226" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G226" s="9"/>
+      <c r="G226" s="6"/>
     </row>
     <row r="227" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G227" s="9"/>
+      <c r="G227" s="6"/>
     </row>
     <row r="228" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G228" s="9"/>
+      <c r="G228" s="6"/>
     </row>
     <row r="229" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G229" s="9"/>
+      <c r="G229" s="6"/>
     </row>
     <row r="230" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G230" s="9"/>
+      <c r="G230" s="6"/>
     </row>
     <row r="231" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G231" s="9"/>
+      <c r="G231" s="6"/>
     </row>
     <row r="232" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G232" s="9"/>
+      <c r="G232" s="6"/>
     </row>
     <row r="233" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G233" s="9"/>
+      <c r="G233" s="6"/>
     </row>
     <row r="234" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G234" s="9"/>
+      <c r="G234" s="6"/>
     </row>
     <row r="235" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G235" s="9"/>
+      <c r="G235" s="6"/>
     </row>
     <row r="236" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G236" s="9"/>
+      <c r="G236" s="6"/>
     </row>
     <row r="237" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G237" s="9"/>
+      <c r="G237" s="6"/>
     </row>
     <row r="238" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G238" s="9"/>
+      <c r="G238" s="6"/>
     </row>
     <row r="239" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G239" s="9"/>
+      <c r="G239" s="6"/>
     </row>
     <row r="240" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G240" s="9"/>
+      <c r="G240" s="6"/>
     </row>
     <row r="241" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G241" s="9"/>
+      <c r="G241" s="6"/>
     </row>
     <row r="242" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G242" s="9"/>
+      <c r="G242" s="6"/>
     </row>
     <row r="243" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G243" s="9"/>
+      <c r="G243" s="6"/>
     </row>
     <row r="244" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G244" s="9"/>
+      <c r="G244" s="6"/>
     </row>
     <row r="245" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G245" s="9"/>
+      <c r="G245" s="6"/>
     </row>
     <row r="246" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G246" s="9"/>
+      <c r="G246" s="6"/>
     </row>
     <row r="247" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G247" s="9"/>
+      <c r="G247" s="6"/>
     </row>
     <row r="248" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G248" s="9"/>
+      <c r="G248" s="6"/>
     </row>
     <row r="249" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G249" s="9"/>
+      <c r="G249" s="6"/>
     </row>
     <row r="250" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G250" s="9"/>
+      <c r="G250" s="6"/>
     </row>
     <row r="251" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G251" s="9"/>
+      <c r="G251" s="6"/>
     </row>
     <row r="252" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G252" s="9"/>
+      <c r="G252" s="6"/>
     </row>
     <row r="253" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G253" s="9"/>
+      <c r="G253" s="6"/>
     </row>
     <row r="254" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G254" s="9"/>
+      <c r="G254" s="6"/>
     </row>
     <row r="255" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G255" s="9"/>
+      <c r="G255" s="6"/>
     </row>
     <row r="256" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G256" s="9"/>
+      <c r="G256" s="6"/>
     </row>
     <row r="257" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G257" s="9"/>
+      <c r="G257" s="6"/>
     </row>
     <row r="258" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G258" s="9"/>
+      <c r="G258" s="6"/>
     </row>
     <row r="259" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G259" s="9"/>
+      <c r="G259" s="6"/>
     </row>
     <row r="260" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G260" s="9"/>
+      <c r="G260" s="6"/>
     </row>
     <row r="261" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G261" s="9"/>
+      <c r="G261" s="6"/>
     </row>
     <row r="262" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G262" s="9"/>
+      <c r="G262" s="6"/>
     </row>
     <row r="263" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G263" s="9"/>
+      <c r="G263" s="6"/>
     </row>
     <row r="264" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G264" s="9"/>
+      <c r="G264" s="6"/>
     </row>
     <row r="265" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G265" s="9"/>
+      <c r="G265" s="6"/>
     </row>
     <row r="266" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G266" s="9"/>
+      <c r="G266" s="6"/>
     </row>
     <row r="267" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G267" s="9"/>
+      <c r="G267" s="6"/>
     </row>
     <row r="268" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G268" s="9"/>
+      <c r="G268" s="6"/>
     </row>
     <row r="269" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G269" s="9"/>
+      <c r="G269" s="6"/>
     </row>
     <row r="270" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G270" s="9"/>
+      <c r="G270" s="6"/>
     </row>
     <row r="271" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G271" s="9"/>
+      <c r="G271" s="6"/>
     </row>
     <row r="272" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G272" s="9"/>
+      <c r="G272" s="6"/>
     </row>
     <row r="273" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G273" s="9"/>
+      <c r="G273" s="6"/>
     </row>
     <row r="274" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G274" s="9"/>
+      <c r="G274" s="6"/>
     </row>
     <row r="275" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G275" s="9"/>
+      <c r="G275" s="6"/>
     </row>
     <row r="276" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G276" s="9"/>
+      <c r="G276" s="6"/>
     </row>
     <row r="277" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G277" s="9"/>
+      <c r="G277" s="6"/>
     </row>
     <row r="278" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G278" s="9"/>
+      <c r="G278" s="6"/>
     </row>
     <row r="279" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G279" s="9"/>
+      <c r="G279" s="6"/>
     </row>
     <row r="280" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G280" s="9"/>
+      <c r="G280" s="6"/>
     </row>
     <row r="281" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G281" s="9"/>
+      <c r="G281" s="6"/>
     </row>
     <row r="282" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G282" s="9"/>
+      <c r="G282" s="6"/>
     </row>
     <row r="283" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G283" s="9"/>
+      <c r="G283" s="6"/>
     </row>
     <row r="284" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G284" s="9"/>
+      <c r="G284" s="6"/>
     </row>
     <row r="285" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G285" s="9"/>
+      <c r="G285" s="6"/>
     </row>
     <row r="286" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G286" s="9"/>
+      <c r="G286" s="6"/>
     </row>
     <row r="287" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G287" s="9"/>
+      <c r="G287" s="6"/>
     </row>
     <row r="288" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G288" s="9"/>
+      <c r="G288" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
